--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2066532.943944375</v>
+        <v>2052170.876663238</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11780739.62615197</v>
+        <v>11743148.41102517</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7023832.510228365</v>
+        <v>7062844.905222918</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6116246.544915715</v>
+        <v>6090531.960739933</v>
       </c>
     </row>
     <row r="11">
@@ -8690,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>166.9949205986973</v>
+        <v>12.00765038119098</v>
       </c>
       <c r="L11" t="n">
-        <v>169.8974587764643</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M11" t="n">
-        <v>157.0543278728635</v>
+        <v>75.62497718659723</v>
       </c>
       <c r="N11" t="n">
-        <v>154.9352185892194</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>159.7708943242646</v>
+        <v>2.335740934338958</v>
       </c>
       <c r="P11" t="n">
-        <v>171.2102576926056</v>
+        <v>15.23888329793493</v>
       </c>
       <c r="Q11" t="n">
-        <v>29.78604773301115</v>
+        <v>23.38314488850104</v>
       </c>
       <c r="R11" t="n">
-        <v>41.9209274275338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>96.65593532945435</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>83.1753875224658</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>77.50936201593851</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>65.00661740861239</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>81.91259242974628</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M13" t="n">
-        <v>106.574621616268</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>12.00765038119098</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N14" t="n">
-        <v>154.9352185892194</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>159.7708943242646</v>
+        <v>149.7808064989777</v>
       </c>
       <c r="P14" t="n">
-        <v>142.2754357207356</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>23.38314488850104</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>38.1964066250756</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,25 +9008,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>96.65593532945435</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>83.1753875224658</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>77.50936201593851</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>81.91259242974628</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>84.73689548763107</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>126.0003966173505</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>159.4527159458297</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>60.52894458646779</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>159.7708943242646</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>171.2102576926056</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9398,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>75.48180602834756</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N20" t="n">
-        <v>126.0003966173506</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>159.7708943242646</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>171.2102576926056</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9641,22 +9643,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>77.34647215553122</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>154.9352185892194</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>29.64169716404125</v>
+        <v>149.7808064989777</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>177.2311132976499</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9796,19 +9798,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L25" t="n">
-        <v>107.0484480003895</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M25" t="n">
-        <v>109.5763841526512</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N25" t="n">
-        <v>99.0340077982693</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.986130351777938</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K26" t="n">
-        <v>166.9949205986973</v>
+        <v>159.4527159458297</v>
       </c>
       <c r="L26" t="n">
-        <v>169.8974587764643</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M26" t="n">
-        <v>157.0543278728635</v>
+        <v>1.573903995912261</v>
       </c>
       <c r="N26" t="n">
-        <v>12.30180450955378</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>159.7708943242646</v>
+        <v>4.711594105593832</v>
       </c>
       <c r="P26" t="n">
-        <v>141.0458614222622</v>
+        <v>56.63761819064906</v>
       </c>
       <c r="Q26" t="n">
-        <v>177.2311132976499</v>
+        <v>25.75899805975592</v>
       </c>
       <c r="R26" t="n">
-        <v>46.73257891250694</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,22 +9956,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>96.65593532945435</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>83.1753875224658</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>77.50936201593851</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>65.00661740861239</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>81.91259242974628</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10036,16 +10038,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>107.0484480003895</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M28" t="n">
-        <v>109.5763841526512</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N28" t="n">
-        <v>99.0340077982693</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>14.38350355244585</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>50.96860574131652</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N29" t="n">
-        <v>1.248579329810084</v>
+        <v>144.3555428192614</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>149.7808064989777</v>
       </c>
       <c r="P29" t="n">
-        <v>171.2102576926056</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>25.75899805975592</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.57225979633047</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10273,16 +10275,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>107.0484480003895</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M31" t="n">
-        <v>109.5763841526512</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N31" t="n">
-        <v>99.0340077982693</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10349,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9384371533847542</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>169.8974587764643</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10431,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>83.1753875224658</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L34" t="n">
-        <v>107.0484480003895</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5763841526512</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N34" t="n">
-        <v>99.0340077982693</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>60.71180373078617</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10586,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.594883918382784</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>160.5406869772256</v>
       </c>
       <c r="M35" t="n">
-        <v>102.370950135041</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10747,19 +10749,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>107.0484480003895</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M37" t="n">
-        <v>109.5763841526512</v>
+        <v>105.4072633376927</v>
       </c>
       <c r="N37" t="n">
-        <v>99.0340077982693</v>
+        <v>94.96401935784729</v>
       </c>
       <c r="O37" t="n">
-        <v>111.9922069543109</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P37" t="n">
-        <v>115.0831965984682</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>78.19348014535612</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,13 +10834,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>144.3555428192613</v>
       </c>
       <c r="O38" t="n">
-        <v>61.7610520458819</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>171.2102576926056</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10984,16 +10986,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M40" t="n">
-        <v>109.5763841526512</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>35.5409886228778</v>
+        <v>42.84584982775088</v>
       </c>
       <c r="K41" t="n">
-        <v>166.9949205986973</v>
+        <v>159.4527159458296</v>
       </c>
       <c r="L41" t="n">
-        <v>169.8974587764643</v>
+        <v>160.5406869772256</v>
       </c>
       <c r="M41" t="n">
-        <v>157.0543278728635</v>
+        <v>146.643116389296</v>
       </c>
       <c r="N41" t="n">
-        <v>154.9352185892194</v>
+        <v>144.3555428192613</v>
       </c>
       <c r="O41" t="n">
-        <v>159.7708943242646</v>
+        <v>149.7808064989776</v>
       </c>
       <c r="P41" t="n">
-        <v>171.2102576926056</v>
+        <v>162.6839488625736</v>
       </c>
       <c r="Q41" t="n">
-        <v>177.2311132976499</v>
+        <v>73.08687686204556</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>102.7406895448237</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>32.67114644159268</v>
+        <v>85.27042670726934</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.395461326277033</v>
+        <v>15.9772879308516</v>
       </c>
       <c r="R42" t="n">
-        <v>21.73495697202525</v>
+        <v>32.10249691774658</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.679593566493761</v>
+        <v>14.13644388940336</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>6.428991598250022</v>
       </c>
       <c r="L43" t="n">
-        <v>107.0484480003895</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M43" t="n">
-        <v>109.5763841526512</v>
+        <v>105.4072633376927</v>
       </c>
       <c r="N43" t="n">
-        <v>99.0340077982693</v>
+        <v>94.96401935784729</v>
       </c>
       <c r="O43" t="n">
-        <v>1.913651145745145</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P43" t="n">
-        <v>5.004640789902417</v>
+        <v>14.12513834680403</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.74835491376881</v>
+        <v>35.85848371207999</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>145.6195444314436</v>
+        <v>140.587183418845</v>
       </c>
       <c r="K44" t="n">
-        <v>166.9949205986973</v>
+        <v>159.4527159458296</v>
       </c>
       <c r="L44" t="n">
-        <v>169.8974587764643</v>
+        <v>160.5406869772256</v>
       </c>
       <c r="M44" t="n">
-        <v>157.0543278728635</v>
+        <v>146.643116389296</v>
       </c>
       <c r="N44" t="n">
-        <v>154.8716983899017</v>
+        <v>144.3555428192613</v>
       </c>
       <c r="O44" t="n">
-        <v>159.7708943242646</v>
+        <v>149.7808064989776</v>
       </c>
       <c r="P44" t="n">
-        <v>171.2102576926056</v>
+        <v>162.6839488625736</v>
       </c>
       <c r="Q44" t="n">
-        <v>177.2311132976499</v>
+        <v>73.08687686204556</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>105.64763986263</v>
+        <v>10.80976248553225</v>
       </c>
       <c r="K45" t="n">
-        <v>101.6884060190646</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>89.9732812598273</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>85.45725744699989</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>73.16725967447923</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>89.3702935514423</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>91.23806513836264</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.3837277086697</v>
+        <v>9.683119200924402</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>32.10249691774658</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>14.13644388940336</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>6.428991598250022</v>
       </c>
       <c r="L46" t="n">
-        <v>107.0484480003895</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M46" t="n">
-        <v>109.5763841526512</v>
+        <v>105.4072633376927</v>
       </c>
       <c r="N46" t="n">
-        <v>99.0340077982693</v>
+        <v>94.96401935784729</v>
       </c>
       <c r="O46" t="n">
-        <v>111.9922069543109</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P46" t="n">
-        <v>115.0831965984682</v>
+        <v>14.12513834680403</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>35.85848371207999</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>259.4309801770727</v>
       </c>
       <c r="G11" t="n">
-        <v>267.440271280734</v>
+        <v>267.3809789670021</v>
       </c>
       <c r="H11" t="n">
-        <v>187.7550319419247</v>
+        <v>187.1478045339184</v>
       </c>
       <c r="I11" t="n">
-        <v>46.93898468475393</v>
+        <v>44.65311775960686</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52.06348625939691</v>
+        <v>50.71236266023243</v>
       </c>
       <c r="T11" t="n">
-        <v>73.82361256760788</v>
+        <v>73.56406046424672</v>
       </c>
       <c r="U11" t="n">
-        <v>103.8671952896167</v>
+        <v>103.8624519045182</v>
       </c>
       <c r="V11" t="n">
         <v>180.3071929054962</v>
@@ -23385,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>20.08986644188454</v>
+        <v>19.50060362605646</v>
       </c>
       <c r="T12" t="n">
-        <v>51.81949034849879</v>
+        <v>51.69161962175829</v>
       </c>
       <c r="U12" t="n">
-        <v>78.48162381587332</v>
+        <v>78.47953669846189</v>
       </c>
       <c r="V12" t="n">
         <v>85.35552158478652</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>20.35868222289588</v>
+        <v>20.33208573216655</v>
       </c>
       <c r="H13" t="n">
-        <v>13.1174480667662</v>
+        <v>12.88098108555474</v>
       </c>
       <c r="I13" t="n">
-        <v>2.374845393373619</v>
+        <v>1.575016381259559</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.42971354170538</v>
+        <v>20.23383860400401</v>
       </c>
       <c r="S13" t="n">
-        <v>73.30859682268283</v>
+        <v>72.84509252515483</v>
       </c>
       <c r="T13" t="n">
-        <v>79.70053442423961</v>
+        <v>79.58689487294166</v>
       </c>
       <c r="U13" t="n">
-        <v>138.8637511607108</v>
+        <v>138.8623004430347</v>
       </c>
       <c r="V13" t="n">
         <v>104.6925777591892</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>188.3497914140879</v>
+        <v>235.2887760988418</v>
       </c>
       <c r="C14" t="n">
-        <v>170.8888415216149</v>
+        <v>217.8278262063688</v>
       </c>
       <c r="D14" t="n">
-        <v>160.2989913712903</v>
+        <v>207.2379760560442</v>
       </c>
       <c r="E14" t="n">
-        <v>187.5463198228691</v>
+        <v>234.485304507623</v>
       </c>
       <c r="F14" t="n">
-        <v>212.4919954923188</v>
+        <v>259.4309801770727</v>
       </c>
       <c r="G14" t="n">
-        <v>220.50128659598</v>
+        <v>267.3809789670021</v>
       </c>
       <c r="H14" t="n">
-        <v>140.8160472571708</v>
+        <v>187.1478045339184</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>44.65311775960686</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>5.124501574642977</v>
+        <v>50.71236266023243</v>
       </c>
       <c r="T14" t="n">
-        <v>26.88462788285395</v>
+        <v>73.56406046424672</v>
       </c>
       <c r="U14" t="n">
-        <v>56.92821060486281</v>
+        <v>103.8624519045182</v>
       </c>
       <c r="V14" t="n">
-        <v>133.3682082207422</v>
+        <v>180.3071929054962</v>
       </c>
       <c r="W14" t="n">
-        <v>154.8569184680203</v>
+        <v>201.7959031527743</v>
       </c>
       <c r="X14" t="n">
-        <v>175.3470504290763</v>
+        <v>222.2860351138303</v>
       </c>
       <c r="Y14" t="n">
-        <v>191.8538884066609</v>
+        <v>238.7928730914148</v>
       </c>
     </row>
     <row r="15">
@@ -23571,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>19.08811808522859</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>25.26343342367699</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>10.20001489076219</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23622,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>19.50060362605646</v>
       </c>
       <c r="T15" t="n">
-        <v>4.880505663744856</v>
+        <v>51.69161962175829</v>
       </c>
       <c r="U15" t="n">
-        <v>31.54263913111939</v>
+        <v>78.47953669846189</v>
       </c>
       <c r="V15" t="n">
-        <v>38.41653690003258</v>
+        <v>85.35552158478652</v>
       </c>
       <c r="W15" t="n">
-        <v>57.31093291152692</v>
+        <v>104.2499175962809</v>
       </c>
       <c r="X15" t="n">
-        <v>11.38893495408479</v>
+        <v>58.32791963883872</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.29864552791167</v>
+        <v>58.23763021266561</v>
       </c>
     </row>
     <row r="16">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>32.38691461729854</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>19.80175553398908</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.170407453573603</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>20.33208573216655</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.88098108555474</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.575016381259559</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>20.23383860400401</v>
       </c>
       <c r="S16" t="n">
-        <v>26.3696121379289</v>
+        <v>72.84509252515483</v>
       </c>
       <c r="T16" t="n">
-        <v>32.76154973948567</v>
+        <v>79.58689487294166</v>
       </c>
       <c r="U16" t="n">
-        <v>91.92476647595689</v>
+        <v>138.8623004430347</v>
       </c>
       <c r="V16" t="n">
-        <v>57.75359307443532</v>
+        <v>104.6925777591892</v>
       </c>
       <c r="W16" t="n">
-        <v>92.13894808719832</v>
+        <v>139.0779327719522</v>
       </c>
       <c r="X16" t="n">
-        <v>31.32560513964447</v>
+        <v>78.2645898243984</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.2006031027021</v>
+        <v>71.13958778745604</v>
       </c>
     </row>
     <row r="17">
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>188.3497914140879</v>
+        <v>190.6356583392352</v>
       </c>
       <c r="C17" t="n">
-        <v>170.8888415216149</v>
+        <v>173.1747084467622</v>
       </c>
       <c r="D17" t="n">
-        <v>160.2989913712903</v>
+        <v>162.5848582964376</v>
       </c>
       <c r="E17" t="n">
-        <v>187.5463198228691</v>
+        <v>189.8321867480164</v>
       </c>
       <c r="F17" t="n">
-        <v>212.4919954923188</v>
+        <v>214.7778624174661</v>
       </c>
       <c r="G17" t="n">
-        <v>220.50128659598</v>
+        <v>222.7278612073954</v>
       </c>
       <c r="H17" t="n">
-        <v>140.8160472571708</v>
+        <v>142.4946867743117</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>5.124501574642977</v>
+        <v>6.059244900625799</v>
       </c>
       <c r="T17" t="n">
-        <v>26.88462788285395</v>
+        <v>28.91094270464009</v>
       </c>
       <c r="U17" t="n">
-        <v>56.92821060486281</v>
+        <v>59.20933414491157</v>
       </c>
       <c r="V17" t="n">
-        <v>133.3682082207422</v>
+        <v>135.6540751458895</v>
       </c>
       <c r="W17" t="n">
-        <v>154.8569184680203</v>
+        <v>157.1427853931676</v>
       </c>
       <c r="X17" t="n">
-        <v>175.3470504290763</v>
+        <v>177.6329173542237</v>
       </c>
       <c r="Y17" t="n">
-        <v>191.8538884066609</v>
+        <v>194.1397553318082</v>
       </c>
     </row>
     <row r="18">
@@ -23862,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>4.880505663744856</v>
+        <v>7.038501862151662</v>
       </c>
       <c r="U18" t="n">
-        <v>31.54263913111939</v>
+        <v>33.82641893885526</v>
       </c>
       <c r="V18" t="n">
-        <v>38.41653690003258</v>
+        <v>40.70240382517989</v>
       </c>
       <c r="W18" t="n">
-        <v>57.31093291152692</v>
+        <v>59.59679983667422</v>
       </c>
       <c r="X18" t="n">
-        <v>11.38893495408479</v>
+        <v>13.67480187923209</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.29864552791167</v>
+        <v>13.58451245305898</v>
       </c>
     </row>
     <row r="19">
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>26.3696121379289</v>
+        <v>28.1919747655482</v>
       </c>
       <c r="T19" t="n">
-        <v>32.76154973948567</v>
+        <v>34.93377711333503</v>
       </c>
       <c r="U19" t="n">
-        <v>91.92476647595689</v>
+        <v>94.20918268342803</v>
       </c>
       <c r="V19" t="n">
-        <v>57.75359307443532</v>
+        <v>60.03945999958262</v>
       </c>
       <c r="W19" t="n">
-        <v>92.13894808719832</v>
+        <v>94.42481501234562</v>
       </c>
       <c r="X19" t="n">
-        <v>31.32560513964447</v>
+        <v>33.61147206479177</v>
       </c>
       <c r="Y19" t="n">
-        <v>24.2006031027021</v>
+        <v>26.48647002784941</v>
       </c>
     </row>
     <row r="20">
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>188.3497914140879</v>
+        <v>190.635658339235</v>
       </c>
       <c r="C20" t="n">
-        <v>170.8888415216149</v>
+        <v>173.1747084467619</v>
       </c>
       <c r="D20" t="n">
-        <v>160.2989913712903</v>
+        <v>162.5848582964373</v>
       </c>
       <c r="E20" t="n">
-        <v>187.5463198228691</v>
+        <v>189.8321867480162</v>
       </c>
       <c r="F20" t="n">
-        <v>212.4919954923188</v>
+        <v>214.7778624174658</v>
       </c>
       <c r="G20" t="n">
-        <v>220.50128659598</v>
+        <v>222.7278612073952</v>
       </c>
       <c r="H20" t="n">
-        <v>140.8160472571708</v>
+        <v>142.4946867743115</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>5.124501574642977</v>
+        <v>6.059244900625572</v>
       </c>
       <c r="T20" t="n">
-        <v>26.88462788285395</v>
+        <v>28.91094270463987</v>
       </c>
       <c r="U20" t="n">
-        <v>56.92821060486281</v>
+        <v>59.20933414491134</v>
       </c>
       <c r="V20" t="n">
-        <v>133.3682082207422</v>
+        <v>135.6540751458893</v>
       </c>
       <c r="W20" t="n">
-        <v>154.8569184680203</v>
+        <v>157.1427853931674</v>
       </c>
       <c r="X20" t="n">
-        <v>175.3470504290763</v>
+        <v>177.6329173542234</v>
       </c>
       <c r="Y20" t="n">
-        <v>191.8538884066609</v>
+        <v>194.139755331808</v>
       </c>
     </row>
     <row r="21">
@@ -24099,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>4.880505663744856</v>
+        <v>7.038501862151435</v>
       </c>
       <c r="U21" t="n">
-        <v>31.54263913111939</v>
+        <v>33.82641893885503</v>
       </c>
       <c r="V21" t="n">
-        <v>38.41653690003258</v>
+        <v>40.70240382517966</v>
       </c>
       <c r="W21" t="n">
-        <v>57.31093291152692</v>
+        <v>59.59679983667399</v>
       </c>
       <c r="X21" t="n">
-        <v>11.38893495408479</v>
+        <v>13.67480187923186</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.29864552791167</v>
+        <v>13.58451245305875</v>
       </c>
     </row>
     <row r="22">
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>26.3696121379289</v>
+        <v>28.19197476554797</v>
       </c>
       <c r="T22" t="n">
-        <v>32.76154973948567</v>
+        <v>34.9337771133348</v>
       </c>
       <c r="U22" t="n">
-        <v>91.92476647595689</v>
+        <v>94.2091826834278</v>
       </c>
       <c r="V22" t="n">
-        <v>57.75359307443532</v>
+        <v>60.03945999958239</v>
       </c>
       <c r="W22" t="n">
-        <v>92.13894808719832</v>
+        <v>94.42481501234539</v>
       </c>
       <c r="X22" t="n">
-        <v>31.32560513964447</v>
+        <v>33.61147206479154</v>
       </c>
       <c r="Y22" t="n">
-        <v>24.2006031027021</v>
+        <v>26.48647002784918</v>
       </c>
     </row>
     <row r="23">
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>188.3497914140879</v>
+        <v>190.635658339235</v>
       </c>
       <c r="C23" t="n">
-        <v>170.8888415216149</v>
+        <v>173.1747084467619</v>
       </c>
       <c r="D23" t="n">
-        <v>160.2989913712903</v>
+        <v>162.5848582964373</v>
       </c>
       <c r="E23" t="n">
-        <v>187.5463198228691</v>
+        <v>189.8321867480162</v>
       </c>
       <c r="F23" t="n">
-        <v>212.4919954923188</v>
+        <v>214.7778624174658</v>
       </c>
       <c r="G23" t="n">
-        <v>220.50128659598</v>
+        <v>222.7278612073952</v>
       </c>
       <c r="H23" t="n">
-        <v>140.8160472571708</v>
+        <v>142.4946867743115</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>5.124501574642977</v>
+        <v>6.059244900625572</v>
       </c>
       <c r="T23" t="n">
-        <v>26.88462788285395</v>
+        <v>28.91094270463987</v>
       </c>
       <c r="U23" t="n">
-        <v>56.92821060486281</v>
+        <v>59.20933414491134</v>
       </c>
       <c r="V23" t="n">
-        <v>133.3682082207422</v>
+        <v>135.6540751458893</v>
       </c>
       <c r="W23" t="n">
-        <v>154.8569184680203</v>
+        <v>157.1427853931674</v>
       </c>
       <c r="X23" t="n">
-        <v>175.3470504290763</v>
+        <v>177.6329173542234</v>
       </c>
       <c r="Y23" t="n">
-        <v>191.8538884066609</v>
+        <v>194.139755331808</v>
       </c>
     </row>
     <row r="24">
@@ -24336,22 +24338,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>4.880505663744856</v>
+        <v>7.038501862151435</v>
       </c>
       <c r="U24" t="n">
-        <v>31.54263913111939</v>
+        <v>33.82641893885503</v>
       </c>
       <c r="V24" t="n">
-        <v>38.41653690003258</v>
+        <v>40.70240382517966</v>
       </c>
       <c r="W24" t="n">
-        <v>57.31093291152692</v>
+        <v>59.59679983667399</v>
       </c>
       <c r="X24" t="n">
-        <v>11.38893495408479</v>
+        <v>13.67480187923186</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.29864552791167</v>
+        <v>13.58451245305875</v>
       </c>
     </row>
     <row r="25">
@@ -24412,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>26.3696121379289</v>
+        <v>28.19197476554797</v>
       </c>
       <c r="T25" t="n">
-        <v>32.76154973948567</v>
+        <v>34.9337771133348</v>
       </c>
       <c r="U25" t="n">
-        <v>91.92476647595689</v>
+        <v>94.2091826834278</v>
       </c>
       <c r="V25" t="n">
-        <v>57.75359307443532</v>
+        <v>60.03945999958239</v>
       </c>
       <c r="W25" t="n">
-        <v>92.13894808719832</v>
+        <v>94.42481501234539</v>
       </c>
       <c r="X25" t="n">
-        <v>31.32560513964447</v>
+        <v>33.61147206479154</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.2006031027021</v>
+        <v>26.48647002784918</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>240.100427583815</v>
+        <v>237.6646292700967</v>
       </c>
       <c r="C26" t="n">
-        <v>222.6394776913419</v>
+        <v>220.2036793776237</v>
       </c>
       <c r="D26" t="n">
-        <v>212.0496275410173</v>
+        <v>209.6138292272991</v>
       </c>
       <c r="E26" t="n">
-        <v>239.2969559925962</v>
+        <v>236.8611576788779</v>
       </c>
       <c r="F26" t="n">
-        <v>264.2426316620458</v>
+        <v>261.8068333483276</v>
       </c>
       <c r="G26" t="n">
-        <v>272.2519227657071</v>
+        <v>269.756832138257</v>
       </c>
       <c r="H26" t="n">
-        <v>192.5666834268978</v>
+        <v>189.5236577051732</v>
       </c>
       <c r="I26" t="n">
-        <v>51.75063616972707</v>
+        <v>47.02897093086173</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.87513774437005</v>
+        <v>53.0882158314873</v>
       </c>
       <c r="T26" t="n">
-        <v>78.63526405258102</v>
+        <v>75.9399136355016</v>
       </c>
       <c r="U26" t="n">
-        <v>108.6788467745899</v>
+        <v>106.2383050757731</v>
       </c>
       <c r="V26" t="n">
-        <v>185.1188443904693</v>
+        <v>182.683046076751</v>
       </c>
       <c r="W26" t="n">
-        <v>206.6075546377474</v>
+        <v>204.1717563240291</v>
       </c>
       <c r="X26" t="n">
-        <v>227.0976865988034</v>
+        <v>224.6618882850852</v>
       </c>
       <c r="Y26" t="n">
-        <v>243.604524576388</v>
+        <v>241.1687262626697</v>
       </c>
     </row>
     <row r="27">
@@ -24519,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23.89976957020173</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="C27" t="n">
-        <v>30.07508490865013</v>
+        <v>27.63928659493186</v>
       </c>
       <c r="D27" t="n">
-        <v>4.81165148497314</v>
+        <v>2.375853171254874</v>
       </c>
       <c r="E27" t="n">
-        <v>15.01166637573533</v>
+        <v>12.57586806201707</v>
       </c>
       <c r="F27" t="n">
-        <v>2.435798313718266</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24570,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>24.90151792685768</v>
+        <v>21.87645679731133</v>
       </c>
       <c r="T27" t="n">
-        <v>56.63114183347193</v>
+        <v>54.06747279301317</v>
       </c>
       <c r="U27" t="n">
-        <v>83.29327530084646</v>
+        <v>80.85538986971676</v>
       </c>
       <c r="V27" t="n">
-        <v>90.16717306975966</v>
+        <v>87.73137475604139</v>
       </c>
       <c r="W27" t="n">
-        <v>109.061569081254</v>
+        <v>106.6257707675357</v>
       </c>
       <c r="X27" t="n">
-        <v>63.13957112381186</v>
+        <v>60.7037728100936</v>
       </c>
       <c r="Y27" t="n">
-        <v>63.04928169763875</v>
+        <v>60.61348338392048</v>
       </c>
     </row>
     <row r="28">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.19856610227168</v>
+        <v>34.76276778855342</v>
       </c>
       <c r="C28" t="n">
-        <v>24.61340701896222</v>
+        <v>22.17760870524396</v>
       </c>
       <c r="D28" t="n">
-        <v>5.982058938546743</v>
+        <v>3.546260624828477</v>
       </c>
       <c r="E28" t="n">
-        <v>3.800548566903558</v>
+        <v>1.364750253185292</v>
       </c>
       <c r="F28" t="n">
-        <v>2.787633943265632</v>
+        <v>0.3518356295473666</v>
       </c>
       <c r="G28" t="n">
-        <v>25.17033370786902</v>
+        <v>22.70793890342142</v>
       </c>
       <c r="H28" t="n">
-        <v>17.92909955173934</v>
+        <v>15.25683425680961</v>
       </c>
       <c r="I28" t="n">
-        <v>7.186496878346759</v>
+        <v>3.950869552514433</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>26.24136502667852</v>
+        <v>22.60969177525888</v>
       </c>
       <c r="S28" t="n">
-        <v>78.12024830765597</v>
+        <v>75.2209456964097</v>
       </c>
       <c r="T28" t="n">
-        <v>84.51218590921275</v>
+        <v>81.96274804419653</v>
       </c>
       <c r="U28" t="n">
-        <v>143.675402645684</v>
+        <v>141.2381536142895</v>
       </c>
       <c r="V28" t="n">
-        <v>109.5042292441624</v>
+        <v>107.0684309304441</v>
       </c>
       <c r="W28" t="n">
-        <v>143.8895842569254</v>
+        <v>141.4537859432071</v>
       </c>
       <c r="X28" t="n">
-        <v>83.07624130937154</v>
+        <v>80.64044299565327</v>
       </c>
       <c r="Y28" t="n">
-        <v>75.95123927242918</v>
+        <v>73.51544095871091</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>177.0511458861762</v>
+        <v>237.6646292700967</v>
       </c>
       <c r="C29" t="n">
-        <v>159.5901959937032</v>
+        <v>220.2036793776237</v>
       </c>
       <c r="D29" t="n">
-        <v>149.0003458433786</v>
+        <v>209.6138292272991</v>
       </c>
       <c r="E29" t="n">
-        <v>176.2476742949574</v>
+        <v>236.8611576788779</v>
       </c>
       <c r="F29" t="n">
-        <v>201.1933499644071</v>
+        <v>261.8068333483276</v>
       </c>
       <c r="G29" t="n">
-        <v>209.2026410680683</v>
+        <v>269.756832138257</v>
       </c>
       <c r="H29" t="n">
-        <v>129.5174017292591</v>
+        <v>189.5236577051732</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>47.02897093086173</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>53.0882158314873</v>
       </c>
       <c r="T29" t="n">
-        <v>15.58598235494228</v>
+        <v>75.9399136355016</v>
       </c>
       <c r="U29" t="n">
-        <v>45.62956507695115</v>
+        <v>106.2383050757731</v>
       </c>
       <c r="V29" t="n">
-        <v>122.0695626928305</v>
+        <v>182.683046076751</v>
       </c>
       <c r="W29" t="n">
-        <v>143.5582729401087</v>
+        <v>204.1717563240291</v>
       </c>
       <c r="X29" t="n">
-        <v>164.0484049011647</v>
+        <v>224.6618882850852</v>
       </c>
       <c r="Y29" t="n">
-        <v>180.5552428787492</v>
+        <v>241.1687262626697</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>27.63928659493186</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2.375853171254874</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>12.57586806201707</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24807,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>21.87645679731133</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>54.06747279301317</v>
       </c>
       <c r="U30" t="n">
-        <v>20.24399360320772</v>
+        <v>80.85538986971676</v>
       </c>
       <c r="V30" t="n">
-        <v>27.11789137212091</v>
+        <v>87.73137475604139</v>
       </c>
       <c r="W30" t="n">
-        <v>46.01228738361525</v>
+        <v>106.6257707675357</v>
       </c>
       <c r="X30" t="n">
-        <v>0.09028942617311486</v>
+        <v>60.7037728100936</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>60.61348338392048</v>
       </c>
     </row>
     <row r="31">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>34.76276778855342</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>22.17760870524396</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3.546260624828477</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.364750253185292</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.3518356295473666</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>22.70793890342142</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>15.25683425680961</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3.950869552514433</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>22.60969177525888</v>
       </c>
       <c r="S31" t="n">
-        <v>15.07096661001723</v>
+        <v>75.2209456964097</v>
       </c>
       <c r="T31" t="n">
-        <v>21.462904211574</v>
+        <v>81.96274804419653</v>
       </c>
       <c r="U31" t="n">
-        <v>80.62612094804521</v>
+        <v>141.2381536142895</v>
       </c>
       <c r="V31" t="n">
-        <v>46.45494754652364</v>
+        <v>107.0684309304441</v>
       </c>
       <c r="W31" t="n">
-        <v>80.84030255928664</v>
+        <v>141.4537859432071</v>
       </c>
       <c r="X31" t="n">
-        <v>20.02695961173279</v>
+        <v>80.64044299565327</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.90195757479043</v>
+        <v>73.51544095871091</v>
       </c>
     </row>
     <row r="32">
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>176.9608564600031</v>
+        <v>184.5764134386092</v>
       </c>
       <c r="C32" t="n">
-        <v>159.4999065675301</v>
+        <v>167.1154635461362</v>
       </c>
       <c r="D32" t="n">
-        <v>148.9100564172055</v>
+        <v>156.5256133958116</v>
       </c>
       <c r="E32" t="n">
-        <v>176.1573848687843</v>
+        <v>183.7729418473904</v>
       </c>
       <c r="F32" t="n">
-        <v>201.103060538234</v>
+        <v>208.7186175168401</v>
       </c>
       <c r="G32" t="n">
-        <v>209.1123516418952</v>
+        <v>216.6686163067695</v>
       </c>
       <c r="H32" t="n">
-        <v>129.4271123030859</v>
+        <v>136.4354418736857</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>15.49569292876917</v>
+        <v>22.85169780401409</v>
       </c>
       <c r="U32" t="n">
-        <v>45.53927565077803</v>
+        <v>53.15008924428557</v>
       </c>
       <c r="V32" t="n">
-        <v>121.9792732666574</v>
+        <v>129.5948302452635</v>
       </c>
       <c r="W32" t="n">
-        <v>143.4679835139355</v>
+        <v>151.0835404925416</v>
       </c>
       <c r="X32" t="n">
-        <v>163.9581154749916</v>
+        <v>171.5736724535977</v>
       </c>
       <c r="Y32" t="n">
-        <v>180.4649534525761</v>
+        <v>188.0805104311822</v>
       </c>
     </row>
     <row r="33">
@@ -25047,22 +25049,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.9792569615256639</v>
       </c>
       <c r="U33" t="n">
-        <v>20.1537041770346</v>
+        <v>27.76717403822926</v>
       </c>
       <c r="V33" t="n">
-        <v>27.02760194594779</v>
+        <v>34.64315892455389</v>
       </c>
       <c r="W33" t="n">
-        <v>45.92199795744213</v>
+        <v>53.53755493604822</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>7.615556978606094</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>7.525267552432979</v>
       </c>
     </row>
     <row r="34">
@@ -25123,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>14.98067718384411</v>
+        <v>22.1327298649222</v>
       </c>
       <c r="T34" t="n">
-        <v>21.37261478540088</v>
+        <v>28.87453221270903</v>
       </c>
       <c r="U34" t="n">
-        <v>80.5358315218721</v>
+        <v>88.14993778280203</v>
       </c>
       <c r="V34" t="n">
-        <v>46.36465812035053</v>
+        <v>53.98021509895662</v>
       </c>
       <c r="W34" t="n">
-        <v>80.75001313311353</v>
+        <v>88.36557011171962</v>
       </c>
       <c r="X34" t="n">
-        <v>19.93667018555968</v>
+        <v>27.55222716416577</v>
       </c>
       <c r="Y34" t="n">
-        <v>12.81166814861731</v>
+        <v>20.42722512722341</v>
       </c>
     </row>
     <row r="35">
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>176.9608564600031</v>
+        <v>184.5764134386094</v>
       </c>
       <c r="C35" t="n">
-        <v>159.4999065675301</v>
+        <v>167.1154635461364</v>
       </c>
       <c r="D35" t="n">
-        <v>148.9100564172055</v>
+        <v>156.5256133958118</v>
       </c>
       <c r="E35" t="n">
-        <v>176.1573848687843</v>
+        <v>183.7729418473906</v>
       </c>
       <c r="F35" t="n">
-        <v>201.103060538234</v>
+        <v>208.7186175168403</v>
       </c>
       <c r="G35" t="n">
-        <v>209.1123516418952</v>
+        <v>216.6686163067697</v>
       </c>
       <c r="H35" t="n">
-        <v>129.4271123030859</v>
+        <v>136.435441873686</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25205,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>15.49569292876917</v>
+        <v>22.85169780401432</v>
       </c>
       <c r="U35" t="n">
-        <v>45.53927565077803</v>
+        <v>53.15008924428579</v>
       </c>
       <c r="V35" t="n">
-        <v>121.9792732666574</v>
+        <v>129.5948302452638</v>
       </c>
       <c r="W35" t="n">
-        <v>143.4679835139355</v>
+        <v>151.0835404925419</v>
       </c>
       <c r="X35" t="n">
-        <v>163.9581154749916</v>
+        <v>171.5736724535979</v>
       </c>
       <c r="Y35" t="n">
-        <v>180.4649534525761</v>
+        <v>188.0805104311824</v>
       </c>
     </row>
     <row r="36">
@@ -25284,22 +25286,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>0.9792569615258913</v>
       </c>
       <c r="U36" t="n">
-        <v>20.1537041770346</v>
+        <v>27.76717403822948</v>
       </c>
       <c r="V36" t="n">
-        <v>27.02760194594779</v>
+        <v>34.64315892455411</v>
       </c>
       <c r="W36" t="n">
-        <v>45.92199795744213</v>
+        <v>53.53755493604845</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>7.615556978606321</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>7.525267552433206</v>
       </c>
     </row>
     <row r="37">
@@ -25360,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>14.98067718384411</v>
+        <v>22.13272986492242</v>
       </c>
       <c r="T37" t="n">
-        <v>21.37261478540088</v>
+        <v>28.87453221270925</v>
       </c>
       <c r="U37" t="n">
-        <v>80.5358315218721</v>
+        <v>88.14993778280225</v>
       </c>
       <c r="V37" t="n">
-        <v>46.36465812035053</v>
+        <v>53.98021509895685</v>
       </c>
       <c r="W37" t="n">
-        <v>80.75001313311353</v>
+        <v>88.36557011171985</v>
       </c>
       <c r="X37" t="n">
-        <v>19.93667018555968</v>
+        <v>27.552227164166</v>
       </c>
       <c r="Y37" t="n">
-        <v>12.81166814861731</v>
+        <v>20.42722512722364</v>
       </c>
     </row>
     <row r="38">
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>176.9608564600031</v>
+        <v>184.5764134386094</v>
       </c>
       <c r="C38" t="n">
-        <v>159.4999065675301</v>
+        <v>167.1154635461364</v>
       </c>
       <c r="D38" t="n">
-        <v>148.9100564172055</v>
+        <v>156.5256133958118</v>
       </c>
       <c r="E38" t="n">
-        <v>176.1573848687843</v>
+        <v>183.7729418473906</v>
       </c>
       <c r="F38" t="n">
-        <v>201.103060538234</v>
+        <v>208.7186175168403</v>
       </c>
       <c r="G38" t="n">
-        <v>209.1123516418952</v>
+        <v>216.6686163067697</v>
       </c>
       <c r="H38" t="n">
-        <v>129.427112303086</v>
+        <v>136.435441873686</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25442,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>15.49569292876916</v>
+        <v>22.85169780401432</v>
       </c>
       <c r="U38" t="n">
-        <v>45.53927565077802</v>
+        <v>53.15008924428579</v>
       </c>
       <c r="V38" t="n">
-        <v>121.9792732666574</v>
+        <v>129.5948302452638</v>
       </c>
       <c r="W38" t="n">
-        <v>143.4679835139355</v>
+        <v>151.0835404925419</v>
       </c>
       <c r="X38" t="n">
-        <v>163.9581154749916</v>
+        <v>171.5736724535979</v>
       </c>
       <c r="Y38" t="n">
-        <v>180.4649534525761</v>
+        <v>188.0805104311824</v>
       </c>
     </row>
     <row r="39">
@@ -25521,22 +25523,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.9792569615258913</v>
       </c>
       <c r="U39" t="n">
-        <v>20.1537041770346</v>
+        <v>27.76717403822948</v>
       </c>
       <c r="V39" t="n">
-        <v>27.02760194594779</v>
+        <v>34.64315892455411</v>
       </c>
       <c r="W39" t="n">
-        <v>45.92199795744213</v>
+        <v>53.53755493604845</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>7.615556978606321</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>7.525267552433206</v>
       </c>
     </row>
     <row r="40">
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>14.98067718384411</v>
+        <v>22.13272986492242</v>
       </c>
       <c r="T40" t="n">
-        <v>21.37261478540088</v>
+        <v>28.87453221270925</v>
       </c>
       <c r="U40" t="n">
-        <v>80.5358315218721</v>
+        <v>88.14993778280225</v>
       </c>
       <c r="V40" t="n">
-        <v>46.36465812035053</v>
+        <v>53.98021509895685</v>
       </c>
       <c r="W40" t="n">
-        <v>80.75001313311353</v>
+        <v>88.36557011171985</v>
       </c>
       <c r="X40" t="n">
-        <v>19.93667018555968</v>
+        <v>27.552227164166</v>
       </c>
       <c r="Y40" t="n">
-        <v>12.81166814861731</v>
+        <v>20.42722512722364</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>272.6552858549148</v>
+        <v>284.9925080723864</v>
       </c>
       <c r="C41" t="n">
-        <v>255.1943359624418</v>
+        <v>267.5315581799134</v>
       </c>
       <c r="D41" t="n">
-        <v>244.6044858121172</v>
+        <v>256.9417080295888</v>
       </c>
       <c r="E41" t="n">
-        <v>271.851814263696</v>
+        <v>284.1890364811676</v>
       </c>
       <c r="F41" t="n">
-        <v>296.7974899331457</v>
+        <v>309.1347121506172</v>
       </c>
       <c r="G41" t="n">
-        <v>304.806781036807</v>
+        <v>317.0847109405466</v>
       </c>
       <c r="H41" t="n">
-        <v>225.1215416979977</v>
+        <v>236.851536507463</v>
       </c>
       <c r="I41" t="n">
-        <v>84.30549444082693</v>
+        <v>94.35684973315142</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>13.57101731062436</v>
+        <v>22.18371872563769</v>
       </c>
       <c r="S41" t="n">
-        <v>89.42999601546991</v>
+        <v>100.416094633777</v>
       </c>
       <c r="T41" t="n">
-        <v>111.1901223236809</v>
+        <v>123.2677924377913</v>
       </c>
       <c r="U41" t="n">
-        <v>141.2337050456898</v>
+        <v>153.5661838780628</v>
       </c>
       <c r="V41" t="n">
-        <v>217.6737026615692</v>
+        <v>230.0109248790407</v>
       </c>
       <c r="W41" t="n">
-        <v>239.1624129088473</v>
+        <v>251.4996351263189</v>
       </c>
       <c r="X41" t="n">
-        <v>259.6525448699033</v>
+        <v>271.9897670873748</v>
       </c>
       <c r="Y41" t="n">
-        <v>276.1593828474878</v>
+        <v>288.4966050649595</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>56.45462784130159</v>
+        <v>68.79185005877318</v>
       </c>
       <c r="C42" t="n">
-        <v>62.62994317974999</v>
+        <v>74.96716539722158</v>
       </c>
       <c r="D42" t="n">
-        <v>37.366509756073</v>
+        <v>49.70373197354459</v>
       </c>
       <c r="E42" t="n">
-        <v>47.56652464683519</v>
+        <v>59.90374686430678</v>
       </c>
       <c r="F42" t="n">
-        <v>34.99065658481813</v>
+        <v>47.32787880228972</v>
       </c>
       <c r="G42" t="n">
-        <v>27.04163230761118</v>
+        <v>39.34713034042898</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>12.03083338147313</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25755,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.45637619795754</v>
+        <v>69.20433559960105</v>
       </c>
       <c r="T42" t="n">
-        <v>89.18600010457179</v>
+        <v>101.3953515953029</v>
       </c>
       <c r="U42" t="n">
-        <v>115.8481335719463</v>
+        <v>128.1832686720065</v>
       </c>
       <c r="V42" t="n">
-        <v>122.7220313408595</v>
+        <v>135.0592535583311</v>
       </c>
       <c r="W42" t="n">
-        <v>141.6164273523539</v>
+        <v>153.9536495698254</v>
       </c>
       <c r="X42" t="n">
-        <v>95.69442939491172</v>
+        <v>108.0316516123833</v>
       </c>
       <c r="Y42" t="n">
-        <v>95.60413996873861</v>
+        <v>107.9413621862102</v>
       </c>
     </row>
     <row r="43">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.75342437337154</v>
+        <v>82.09064659084314</v>
       </c>
       <c r="C43" t="n">
-        <v>57.16826529006208</v>
+        <v>69.50548750753367</v>
       </c>
       <c r="D43" t="n">
-        <v>38.5369172096466</v>
+        <v>50.87413942711819</v>
       </c>
       <c r="E43" t="n">
-        <v>36.35540683800342</v>
+        <v>48.69262905547501</v>
       </c>
       <c r="F43" t="n">
-        <v>35.34249221436549</v>
+        <v>47.67971443183708</v>
       </c>
       <c r="G43" t="n">
-        <v>57.72519197896888</v>
+        <v>70.03581770571114</v>
       </c>
       <c r="H43" t="n">
-        <v>50.4839578228392</v>
+        <v>62.58471305909933</v>
       </c>
       <c r="I43" t="n">
-        <v>39.74135514944662</v>
+        <v>51.27874835480415</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>58.79622329777838</v>
+        <v>69.9375705775486</v>
       </c>
       <c r="S43" t="n">
-        <v>110.6751065787558</v>
+        <v>122.5488244986994</v>
       </c>
       <c r="T43" t="n">
-        <v>117.0670441803126</v>
+        <v>129.2906268464862</v>
       </c>
       <c r="U43" t="n">
-        <v>176.2302609167838</v>
+        <v>188.5660324165792</v>
       </c>
       <c r="V43" t="n">
-        <v>142.0590875152623</v>
+        <v>154.3963097327338</v>
       </c>
       <c r="W43" t="n">
-        <v>176.4444425280253</v>
+        <v>188.7816647454968</v>
       </c>
       <c r="X43" t="n">
-        <v>115.6310995804714</v>
+        <v>127.968321797943</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.506097543529</v>
+        <v>120.8433197610006</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.6435522373075</v>
+        <v>284.9925080723864</v>
       </c>
       <c r="C44" t="n">
-        <v>365.1826023448344</v>
+        <v>267.5315581799134</v>
       </c>
       <c r="D44" t="n">
-        <v>354.5927521945099</v>
+        <v>256.9417080295888</v>
       </c>
       <c r="E44" t="n">
-        <v>381.8400806460887</v>
+        <v>284.1890364811676</v>
       </c>
       <c r="F44" t="n">
-        <v>406.7857563155384</v>
+        <v>309.1347121506172</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7950474191996</v>
+        <v>317.0847109405466</v>
       </c>
       <c r="H44" t="n">
-        <v>335.1098080803904</v>
+        <v>236.851536507463</v>
       </c>
       <c r="I44" t="n">
-        <v>194.2937608232196</v>
+        <v>94.35684973315142</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>123.559283693017</v>
+        <v>22.18371872563769</v>
       </c>
       <c r="S44" t="n">
-        <v>199.4182623978626</v>
+        <v>100.416094633777</v>
       </c>
       <c r="T44" t="n">
-        <v>221.1783887060735</v>
+        <v>123.2677924377913</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2219714280824</v>
+        <v>153.5661838780628</v>
       </c>
       <c r="V44" t="n">
-        <v>327.6619690439618</v>
+        <v>230.0109248790407</v>
       </c>
       <c r="W44" t="n">
-        <v>349.15067929124</v>
+        <v>251.4996351263189</v>
       </c>
       <c r="X44" t="n">
-        <v>369.640811252296</v>
+        <v>271.9897670873748</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.1476492298805</v>
+        <v>288.4966050649595</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.4428942236943</v>
+        <v>68.79185005877318</v>
       </c>
       <c r="C45" t="n">
-        <v>172.6182095621427</v>
+        <v>74.96716539722158</v>
       </c>
       <c r="D45" t="n">
-        <v>147.3547761384657</v>
+        <v>49.70373197354459</v>
       </c>
       <c r="E45" t="n">
-        <v>157.5547910292279</v>
+        <v>59.90374686430678</v>
       </c>
       <c r="F45" t="n">
-        <v>144.9789229672108</v>
+        <v>47.32787880228972</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0298986900038</v>
+        <v>39.34713034042898</v>
       </c>
       <c r="H45" t="n">
-        <v>109.9882663823927</v>
+        <v>12.03083338147313</v>
       </c>
       <c r="I45" t="n">
-        <v>81.61716351640634</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.20155354309711</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>167.4446425803502</v>
+        <v>69.20433559960105</v>
       </c>
       <c r="T45" t="n">
-        <v>199.1742664869645</v>
+        <v>101.3953515953029</v>
       </c>
       <c r="U45" t="n">
-        <v>225.836399954339</v>
+        <v>128.1832686720065</v>
       </c>
       <c r="V45" t="n">
-        <v>232.7102977232522</v>
+        <v>135.0592535583311</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6046937347465</v>
+        <v>153.9536495698254</v>
       </c>
       <c r="X45" t="n">
-        <v>205.6826957773044</v>
+        <v>108.0316516123833</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5924063511313</v>
+        <v>107.9413621862102</v>
       </c>
     </row>
     <row r="46">
@@ -26020,34 +26022,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.7416907557642</v>
+        <v>82.09064659084314</v>
       </c>
       <c r="C46" t="n">
-        <v>167.1565316724547</v>
+        <v>69.50548750753367</v>
       </c>
       <c r="D46" t="n">
-        <v>148.5251835920393</v>
+        <v>50.87413942711819</v>
       </c>
       <c r="E46" t="n">
-        <v>146.3436732203961</v>
+        <v>48.69262905547501</v>
       </c>
       <c r="F46" t="n">
-        <v>145.3307585967582</v>
+        <v>47.67971443183708</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7134583613615</v>
+        <v>70.03581770571114</v>
       </c>
       <c r="H46" t="n">
-        <v>160.4722242052319</v>
+        <v>62.58471305909933</v>
       </c>
       <c r="I46" t="n">
-        <v>149.7296215318393</v>
+        <v>51.27874835480415</v>
       </c>
       <c r="J46" t="n">
-        <v>80.03161862616309</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4262980687053037</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26065,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.39366291841002</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>168.784489680171</v>
+        <v>69.9375705775486</v>
       </c>
       <c r="S46" t="n">
-        <v>220.6633729611485</v>
+        <v>122.5488244986994</v>
       </c>
       <c r="T46" t="n">
-        <v>227.0553105627053</v>
+        <v>129.2906268464862</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2185272991765</v>
+        <v>188.5660324165792</v>
       </c>
       <c r="V46" t="n">
-        <v>252.0473538976549</v>
+        <v>154.3963097327338</v>
       </c>
       <c r="W46" t="n">
-        <v>286.4327089104179</v>
+        <v>188.7816647454968</v>
       </c>
       <c r="X46" t="n">
-        <v>225.6193659628641</v>
+        <v>127.968321797943</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.4943639259217</v>
+        <v>120.8433197610006</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>488096.9826491933</v>
+        <v>483325.6468276016</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>521476.3137793513</v>
+        <v>483325.6468276016</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>521476.3137793514</v>
+        <v>515360.2763749364</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>521476.3137793514</v>
+        <v>515360.2763749366</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>521476.3137793513</v>
+        <v>515360.2763749366</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>482622.1545414486</v>
+        <v>480743.1587115153</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>525298.1261483101</v>
+        <v>480743.1587115154</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>525316.6472183011</v>
+        <v>517972.9015911884</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>525316.6472183011</v>
+        <v>517972.901591188</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>525316.647218301</v>
+        <v>517972.9015911881</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>440903.6641764148</v>
+        <v>419121.2722858044</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>270675.5160784231</v>
+        <v>419121.2722858044</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>798794.4302491124</v>
+      </c>
+      <c r="C2" t="n">
         <v>798794.4302491127</v>
       </c>
-      <c r="C2" t="n">
-        <v>798794.4302491125</v>
-      </c>
       <c r="D2" t="n">
-        <v>798794.4302491122</v>
+        <v>798794.4302491128</v>
       </c>
       <c r="E2" t="n">
-        <v>548943.0184603749</v>
+        <v>549393.6527160387</v>
       </c>
       <c r="F2" t="n">
-        <v>628593.0363111825</v>
+        <v>549393.6527160392</v>
       </c>
       <c r="G2" t="n">
-        <v>628593.0363111827</v>
+        <v>625363.9518690088</v>
       </c>
       <c r="H2" t="n">
-        <v>628593.0363111825</v>
+        <v>625363.9518690088</v>
       </c>
       <c r="I2" t="n">
-        <v>628593.0363111827</v>
+        <v>625363.9518690088</v>
       </c>
       <c r="J2" t="n">
-        <v>539322.3275883615</v>
+        <v>544728.9101670665</v>
       </c>
       <c r="K2" t="n">
-        <v>644778.199583097</v>
+        <v>544728.9101670665</v>
       </c>
       <c r="L2" t="n">
-        <v>644899.0149613648</v>
+        <v>634443.0032432087</v>
       </c>
       <c r="M2" t="n">
-        <v>644899.0149613648</v>
+        <v>634443.0032432082</v>
       </c>
       <c r="N2" t="n">
-        <v>644899.0149613648</v>
+        <v>634443.0032432083</v>
       </c>
       <c r="O2" t="n">
-        <v>470914.0885711596</v>
+        <v>444588.5446890038</v>
       </c>
       <c r="P2" t="n">
-        <v>219031.0901969279</v>
+        <v>444588.5446890039</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26374,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>201372.1138361211</v>
+        <v>213221.4749899867</v>
       </c>
       <c r="F3" t="n">
-        <v>37551.18774780315</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>35722.4942076853</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76555.54351592938</v>
+        <v>80332.87570702159</v>
       </c>
       <c r="K3" t="n">
-        <v>87990.61310591413</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>72.23154093849189</v>
+        <v>78193.06687287531</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>287665.9708696739</v>
+        <v>282536.4385884517</v>
       </c>
       <c r="F4" t="n">
-        <v>332834.9169278881</v>
+        <v>282536.4385884517</v>
       </c>
       <c r="G4" t="n">
-        <v>332834.9169278881</v>
+        <v>325628.2594135485</v>
       </c>
       <c r="H4" t="n">
-        <v>332834.9169278881</v>
+        <v>325628.2594135488</v>
       </c>
       <c r="I4" t="n">
-        <v>332834.9169278881</v>
+        <v>325628.2594135488</v>
       </c>
       <c r="J4" t="n">
-        <v>282139.8400292347</v>
+        <v>279860.5188205262</v>
       </c>
       <c r="K4" t="n">
-        <v>341869.1416045513</v>
+        <v>279860.5188205262</v>
       </c>
       <c r="L4" t="n">
-        <v>341936.0906963601</v>
+        <v>330718.8386820604</v>
       </c>
       <c r="M4" t="n">
-        <v>341936.0906963601</v>
+        <v>330718.8386820601</v>
       </c>
       <c r="N4" t="n">
-        <v>341936.0906963601</v>
+        <v>330718.8386820601</v>
       </c>
       <c r="O4" t="n">
-        <v>242710.1939212098</v>
+        <v>222113.9962824357</v>
       </c>
       <c r="P4" t="n">
-        <v>96718.34103925477</v>
+        <v>222113.9962824357</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>14659.01869890743</v>
+        <v>14980.54609319681</v>
       </c>
       <c r="F5" t="n">
-        <v>18605.13220237001</v>
+        <v>14980.54609319681</v>
       </c>
       <c r="G5" t="n">
-        <v>18605.13220237001</v>
+        <v>18734.48905012918</v>
       </c>
       <c r="H5" t="n">
-        <v>18605.13220237001</v>
+        <v>18734.4890501292</v>
       </c>
       <c r="I5" t="n">
-        <v>18605.13220237001</v>
+        <v>18734.4890501292</v>
       </c>
       <c r="J5" t="n">
-        <v>14254.50797021722</v>
+        <v>14780.81049294258</v>
       </c>
       <c r="K5" t="n">
-        <v>19554.99803325602</v>
+        <v>14780.81049294258</v>
       </c>
       <c r="L5" t="n">
-        <v>19562.58857502496</v>
+        <v>19243.88370967991</v>
       </c>
       <c r="M5" t="n">
-        <v>19562.58857502496</v>
+        <v>19243.88370967989</v>
       </c>
       <c r="N5" t="n">
-        <v>19562.58857502496</v>
+        <v>19243.88370967989</v>
       </c>
       <c r="O5" t="n">
-        <v>11517.65359022413</v>
+        <v>10802.00304991289</v>
       </c>
       <c r="P5" t="n">
-        <v>2271.050023722759</v>
+        <v>10802.00304991289</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297550.8703173814</v>
+        <v>297550.8703173812</v>
       </c>
       <c r="C6" t="n">
-        <v>297550.8703173813</v>
+        <v>297550.8703173815</v>
       </c>
       <c r="D6" t="n">
-        <v>297550.8703173809</v>
+        <v>297550.8703173816</v>
       </c>
       <c r="E6" t="n">
-        <v>45245.91505567249</v>
+        <v>38655.1930444036</v>
       </c>
       <c r="F6" t="n">
-        <v>239601.7994331213</v>
+        <v>251876.6680343908</v>
       </c>
       <c r="G6" t="n">
-        <v>277152.9871809245</v>
+        <v>245278.7091976458</v>
       </c>
       <c r="H6" t="n">
-        <v>277152.9871809244</v>
+        <v>281001.2034053306</v>
       </c>
       <c r="I6" t="n">
-        <v>277152.9871809246</v>
+        <v>281001.2034053308</v>
       </c>
       <c r="J6" t="n">
-        <v>166372.4360729802</v>
+        <v>169754.7051465762</v>
       </c>
       <c r="K6" t="n">
-        <v>195363.4468393756</v>
+        <v>250087.5808535977</v>
       </c>
       <c r="L6" t="n">
-        <v>283328.1041490412</v>
+        <v>206287.2139785932</v>
       </c>
       <c r="M6" t="n">
-        <v>283400.3356899797</v>
+        <v>284480.2808514682</v>
       </c>
       <c r="N6" t="n">
-        <v>283400.3356899797</v>
+        <v>284480.2808514683</v>
       </c>
       <c r="O6" t="n">
-        <v>216686.2410597256</v>
+        <v>211672.5453566553</v>
       </c>
       <c r="P6" t="n">
-        <v>120041.6991339503</v>
+        <v>211672.5453566553</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26697,37 @@
         <v>147.4450655646388</v>
       </c>
       <c r="F2" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="G2" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="H2" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="I2" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="J2" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="K2" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="L2" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="M2" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="N2" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="O2" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.828416603386</v>
+        <v>118.5773796441832</v>
       </c>
       <c r="F3" t="n">
-        <v>103.828416603386</v>
+        <v>118.5773796441832</v>
       </c>
       <c r="G3" t="n">
-        <v>103.828416603386</v>
+        <v>118.5773796441832</v>
       </c>
       <c r="H3" t="n">
-        <v>103.828416603386</v>
+        <v>118.5773796441832</v>
       </c>
       <c r="I3" t="n">
-        <v>103.828416603386</v>
+        <v>118.5773796441832</v>
       </c>
       <c r="J3" t="n">
-        <v>103.828416603386</v>
+        <v>118.5773796441832</v>
       </c>
       <c r="K3" t="n">
-        <v>103.828416603386</v>
+        <v>118.5773796441832</v>
       </c>
       <c r="L3" t="n">
-        <v>103.828416603386</v>
+        <v>118.5773796441832</v>
       </c>
       <c r="M3" t="n">
-        <v>103.828416603386</v>
+        <v>118.5773796441834</v>
       </c>
       <c r="N3" t="n">
-        <v>103.828416603386</v>
+        <v>118.5773796441834</v>
       </c>
       <c r="O3" t="n">
-        <v>103.828416603386</v>
+        <v>118.5773796441834</v>
       </c>
       <c r="P3" t="n">
-        <v>103.828416603386</v>
+        <v>118.5773796441834</v>
       </c>
     </row>
     <row r="4">
@@ -26917,25 +26919,25 @@
         <v>147.4450655646388</v>
       </c>
       <c r="F2" t="n">
-        <v>46.93898468475393</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>44.65311775960663</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>95.69442939491172</v>
+        <v>100.416094633777</v>
       </c>
       <c r="K2" t="n">
-        <v>109.9882663823927</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09028942617311486</v>
+        <v>97.74133359109413</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.828416603386</v>
+        <v>118.5773796441832</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27154,22 +27156,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="K2" t="n">
-        <v>46.93898468475393</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>44.65311775960663</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>95.69442939491172</v>
+        <v>100.416094633777</v>
       </c>
       <c r="P2" t="n">
-        <v>109.9882663823927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28111,31 +28113,31 @@
         <v>147.4450655646388</v>
       </c>
       <c r="J11" t="n">
-        <v>145.6195444314436</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>71.01813920269889</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>144.3555428192614</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Q11" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="R11" t="n">
-        <v>147.4450655646388</v>
+        <v>119.9250523167319</v>
       </c>
       <c r="S11" t="n">
         <v>147.4450655646388</v>
@@ -28181,40 +28183,40 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.1201881161769</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H12" t="n">
-        <v>110.0785558085658</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I12" t="n">
-        <v>91.83320009116434</v>
+        <v>80.61519483059585</v>
       </c>
       <c r="J12" t="n">
-        <v>105.7379292888031</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>101.7786954452377</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06357068600039</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>85.54754687317298</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>73.25754910065231</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>89.46058297761539</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>91.32835456453573</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.4740171348428</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>131.813512780591</v>
+        <v>84.32216069751995</v>
       </c>
       <c r="S12" t="n">
         <v>147.4450655646388</v>
@@ -28269,28 +28271,28 @@
         <v>147.4450655646388</v>
       </c>
       <c r="J13" t="n">
-        <v>113.7581493750595</v>
+        <v>78.24153615777421</v>
       </c>
       <c r="K13" t="n">
-        <v>107.2603538395309</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>107.0484480003895</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3.001762536383224</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>99.0340077982693</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>111.9922069543109</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>115.0831965984682</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>135.8269107223346</v>
+        <v>68.25685892542273</v>
       </c>
       <c r="R13" t="n">
         <v>147.4450655646388</v>
@@ -28324,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C14" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D14" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E14" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F14" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="G14" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H14" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I14" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J14" t="n">
-        <v>145.6195444314436</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K14" t="n">
-        <v>166.9949205986973</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="L14" t="n">
-        <v>169.8974587764643</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>157.0543278728635</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>144.3555428192614</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>28.93482197186997</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>177.2311132976499</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="R14" t="n">
-        <v>189.3659929921726</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S14" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T14" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U14" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V14" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W14" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X14" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="15">
@@ -28403,76 +28405,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.1201881161769</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H15" t="n">
-        <v>110.0785558085658</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I15" t="n">
-        <v>91.83320009116434</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J15" t="n">
-        <v>105.7379292888031</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K15" t="n">
-        <v>101.7786954452377</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06357068600039</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>85.54754687317298</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>73.25754910065231</v>
+        <v>65.00661740861239</v>
       </c>
       <c r="O15" t="n">
-        <v>89.46058297761539</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>91.32835456453573</v>
+        <v>0.5335312196383591</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.4740171348428</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>131.813512780591</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S15" t="n">
-        <v>167.5349320065233</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T15" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U15" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V15" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W15" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X15" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="16">
@@ -28482,13 +28484,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -28497,61 +28499,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.8037477875346</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H16" t="n">
-        <v>160.562513631405</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I16" t="n">
-        <v>149.8199109580124</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J16" t="n">
-        <v>113.7581493750595</v>
+        <v>111.8777774804975</v>
       </c>
       <c r="K16" t="n">
-        <v>107.2603538395309</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L16" t="n">
-        <v>107.0484480003895</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M16" t="n">
-        <v>109.5763841526512</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N16" t="n">
-        <v>99.0340077982693</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O16" t="n">
-        <v>111.9922069543109</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P16" t="n">
-        <v>115.0831965984682</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q16" t="n">
-        <v>135.8269107223346</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R16" t="n">
-        <v>168.8747791063441</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S16" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T16" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U16" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V16" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W16" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X16" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.3840502493927</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="C17" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="D17" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="E17" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="F17" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="G17" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="H17" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="I17" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="J17" t="n">
-        <v>19.61914781409305</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K17" t="n">
-        <v>166.9949205986973</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>169.8974587764643</v>
+        <v>100.0117423907579</v>
       </c>
       <c r="M17" t="n">
-        <v>157.0543278728635</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N17" t="n">
-        <v>154.9352185892194</v>
+        <v>144.3555428192614</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>149.7808064989777</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>177.2311132976499</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R17" t="n">
-        <v>189.3659929921726</v>
+        <v>185.6414721897143</v>
       </c>
       <c r="S17" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="T17" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="U17" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="V17" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="W17" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="X17" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="Y17" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
     </row>
     <row r="18">
@@ -28655,61 +28657,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.1201881161769</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H18" t="n">
-        <v>110.0785558085658</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I18" t="n">
-        <v>91.83320009116434</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J18" t="n">
-        <v>105.7379292888031</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K18" t="n">
-        <v>101.7786954452377</v>
+        <v>96.65593532945435</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06357068600039</v>
+        <v>83.1753875224658</v>
       </c>
       <c r="M18" t="n">
-        <v>85.54754687317298</v>
+        <v>77.50936201593851</v>
       </c>
       <c r="N18" t="n">
-        <v>73.25754910065231</v>
+        <v>65.00661740861239</v>
       </c>
       <c r="O18" t="n">
-        <v>89.46058297761539</v>
+        <v>81.91259242974628</v>
       </c>
       <c r="P18" t="n">
-        <v>91.32835456453573</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q18" t="n">
-        <v>111.4740171348428</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R18" t="n">
-        <v>131.813512780591</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S18" t="n">
-        <v>167.5349320065233</v>
+        <v>166.9456691906952</v>
       </c>
       <c r="T18" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="U18" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="V18" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="W18" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="X18" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="Y18" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
     </row>
     <row r="19">
@@ -28734,61 +28736,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.8037477875346</v>
+        <v>167.7771512968053</v>
       </c>
       <c r="H19" t="n">
-        <v>160.562513631405</v>
+        <v>160.3260466501935</v>
       </c>
       <c r="I19" t="n">
-        <v>149.8199109580124</v>
+        <v>149.0200819458983</v>
       </c>
       <c r="J19" t="n">
-        <v>113.7581493750595</v>
+        <v>111.8777774804975</v>
       </c>
       <c r="K19" t="n">
-        <v>107.2603538395309</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L19" t="n">
-        <v>107.0484480003895</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M19" t="n">
-        <v>109.5763841526512</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N19" t="n">
-        <v>99.0340077982693</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O19" t="n">
-        <v>111.9922069543109</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P19" t="n">
-        <v>115.0831965984682</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q19" t="n">
-        <v>135.8269107223346</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R19" t="n">
-        <v>168.8747791063441</v>
+        <v>167.6789041686428</v>
       </c>
       <c r="S19" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="T19" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="U19" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="V19" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="W19" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="X19" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
       <c r="Y19" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242454</v>
       </c>
     </row>
     <row r="20">
@@ -28798,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="C20" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="D20" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="E20" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="F20" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="G20" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="H20" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="I20" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="J20" t="n">
-        <v>145.6195444314436</v>
+        <v>65.10537739049755</v>
       </c>
       <c r="K20" t="n">
-        <v>166.9949205986973</v>
+        <v>159.4527159458297</v>
       </c>
       <c r="L20" t="n">
-        <v>169.8974587764643</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>157.0543278728635</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>28.9348219718688</v>
+        <v>144.3555428192614</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>149.7808064989777</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q20" t="n">
-        <v>177.2311132976499</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R20" t="n">
-        <v>189.3659929921726</v>
+        <v>185.6414721897143</v>
       </c>
       <c r="S20" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="T20" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U20" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V20" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W20" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X20" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y20" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="21">
@@ -28892,61 +28894,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.1201881161769</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H21" t="n">
-        <v>110.0785558085658</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I21" t="n">
-        <v>91.83320009116434</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J21" t="n">
-        <v>105.7379292888031</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K21" t="n">
-        <v>101.7786954452377</v>
+        <v>96.65593532945435</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06357068600039</v>
+        <v>83.1753875224658</v>
       </c>
       <c r="M21" t="n">
-        <v>85.54754687317298</v>
+        <v>77.50936201593851</v>
       </c>
       <c r="N21" t="n">
-        <v>73.25754910065231</v>
+        <v>65.00661740861239</v>
       </c>
       <c r="O21" t="n">
-        <v>89.46058297761539</v>
+        <v>81.91259242974628</v>
       </c>
       <c r="P21" t="n">
-        <v>91.32835456453573</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q21" t="n">
-        <v>111.4740171348428</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R21" t="n">
-        <v>131.813512780591</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S21" t="n">
-        <v>167.5349320065233</v>
+        <v>166.9456691906952</v>
       </c>
       <c r="T21" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U21" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V21" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W21" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X21" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y21" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="22">
@@ -28971,61 +28973,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.8037477875346</v>
+        <v>167.7771512968053</v>
       </c>
       <c r="H22" t="n">
-        <v>160.562513631405</v>
+        <v>160.3260466501935</v>
       </c>
       <c r="I22" t="n">
-        <v>149.8199109580124</v>
+        <v>149.0200819458983</v>
       </c>
       <c r="J22" t="n">
-        <v>113.7581493750595</v>
+        <v>111.8777774804975</v>
       </c>
       <c r="K22" t="n">
-        <v>107.2603538395309</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L22" t="n">
-        <v>107.0484480003895</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M22" t="n">
-        <v>109.5763841526512</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N22" t="n">
-        <v>99.0340077982693</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O22" t="n">
-        <v>111.9922069543109</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P22" t="n">
-        <v>115.0831965984682</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q22" t="n">
-        <v>135.8269107223346</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R22" t="n">
-        <v>168.8747791063441</v>
+        <v>167.6789041686428</v>
       </c>
       <c r="S22" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="T22" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U22" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V22" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W22" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X22" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y22" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="23">
@@ -29035,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="C23" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="D23" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="E23" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="F23" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="G23" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="H23" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="I23" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="J23" t="n">
-        <v>145.6195444314436</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K23" t="n">
-        <v>166.9949205986973</v>
+        <v>159.4527159458297</v>
       </c>
       <c r="L23" t="n">
-        <v>169.8974587764643</v>
+        <v>83.19421482169446</v>
       </c>
       <c r="M23" t="n">
-        <v>157.0543278728635</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>144.3555428192614</v>
       </c>
       <c r="O23" t="n">
-        <v>130.1291971602234</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>171.2102576926056</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R23" t="n">
-        <v>189.3659929921726</v>
+        <v>185.6414721897143</v>
       </c>
       <c r="S23" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="T23" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U23" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V23" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W23" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X23" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y23" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="24">
@@ -29129,61 +29131,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.1201881161769</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H24" t="n">
-        <v>110.0785558085658</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I24" t="n">
-        <v>91.83320009116434</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J24" t="n">
-        <v>105.7379292888031</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K24" t="n">
-        <v>101.7786954452377</v>
+        <v>96.65593532945435</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06357068600039</v>
+        <v>83.1753875224658</v>
       </c>
       <c r="M24" t="n">
-        <v>85.54754687317298</v>
+        <v>77.50936201593851</v>
       </c>
       <c r="N24" t="n">
-        <v>73.25754910065231</v>
+        <v>65.00661740861239</v>
       </c>
       <c r="O24" t="n">
-        <v>89.46058297761539</v>
+        <v>81.91259242974628</v>
       </c>
       <c r="P24" t="n">
-        <v>91.32835456453573</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q24" t="n">
-        <v>111.4740171348428</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R24" t="n">
-        <v>131.813512780591</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S24" t="n">
-        <v>167.5349320065233</v>
+        <v>166.9456691906952</v>
       </c>
       <c r="T24" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U24" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V24" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W24" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X24" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y24" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="25">
@@ -29208,19 +29210,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.8037477875346</v>
+        <v>167.7771512968053</v>
       </c>
       <c r="H25" t="n">
-        <v>160.562513631405</v>
+        <v>160.3260466501935</v>
       </c>
       <c r="I25" t="n">
-        <v>149.8199109580124</v>
+        <v>149.0200819458983</v>
       </c>
       <c r="J25" t="n">
-        <v>113.7581493750595</v>
+        <v>111.8777774804975</v>
       </c>
       <c r="K25" t="n">
-        <v>107.2603538395309</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29232,37 +29234,37 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>111.9922069543109</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>115.0831965984682</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q25" t="n">
-        <v>135.8269107223346</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R25" t="n">
-        <v>168.8747791063441</v>
+        <v>167.6789041686428</v>
       </c>
       <c r="S25" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="T25" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U25" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V25" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W25" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X25" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="26">
@@ -29272,31 +29274,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C26" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D26" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E26" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F26" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G26" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H26" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I26" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J26" t="n">
-        <v>142.6334140796656</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29305,43 +29307,43 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="N26" t="n">
-        <v>142.6334140796656</v>
+        <v>144.3555428192614</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="P26" t="n">
-        <v>30.16439627034343</v>
+        <v>106.0463306719246</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="R26" t="n">
-        <v>142.6334140796656</v>
+        <v>119.9250523167319</v>
       </c>
       <c r="S26" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T26" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U26" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V26" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W26" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X26" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y26" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="27">
@@ -29351,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C27" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D27" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E27" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F27" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.1201881161769</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H27" t="n">
-        <v>110.0785558085658</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I27" t="n">
-        <v>91.83320009116434</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J27" t="n">
-        <v>105.7379292888031</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K27" t="n">
-        <v>101.7786954452377</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06357068600039</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>85.54754687317298</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>73.25754910065231</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>89.46058297761539</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>91.32835456453573</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>111.4740171348428</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R27" t="n">
-        <v>131.813512780591</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S27" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T27" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U27" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V27" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W27" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X27" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y27" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="28">
@@ -29430,34 +29432,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C28" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D28" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E28" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F28" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G28" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H28" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I28" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J28" t="n">
-        <v>113.7581493750595</v>
+        <v>111.8777774804975</v>
       </c>
       <c r="K28" t="n">
-        <v>107.2603538395309</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29469,37 +29471,37 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>111.9922069543109</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>115.0831965984682</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q28" t="n">
-        <v>135.8269107223346</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R28" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S28" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T28" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U28" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V28" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W28" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X28" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.6334140796656</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C29" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D29" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E29" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F29" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G29" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H29" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I29" t="n">
-        <v>194.3840502493927</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J29" t="n">
-        <v>145.6195444314436</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>166.9949205986973</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="L29" t="n">
-        <v>169.8974587764643</v>
+        <v>109.5720812359092</v>
       </c>
       <c r="M29" t="n">
-        <v>157.0543278728635</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>153.6866392594093</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>159.7708943242646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>177.2311132976499</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="R29" t="n">
-        <v>189.3659929921726</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S29" t="n">
-        <v>199.5085518240357</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T29" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U29" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V29" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W29" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X29" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y29" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.1201881161769</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H30" t="n">
-        <v>110.0785558085658</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I30" t="n">
-        <v>91.83320009116434</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J30" t="n">
-        <v>105.7379292888031</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K30" t="n">
-        <v>101.7786954452377</v>
+        <v>96.65593532945435</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06357068600039</v>
+        <v>83.1753875224658</v>
       </c>
       <c r="M30" t="n">
-        <v>85.54754687317298</v>
+        <v>77.50936201593851</v>
       </c>
       <c r="N30" t="n">
-        <v>73.25754910065231</v>
+        <v>65.00661740861239</v>
       </c>
       <c r="O30" t="n">
-        <v>89.46058297761539</v>
+        <v>81.91259242974628</v>
       </c>
       <c r="P30" t="n">
-        <v>91.32835456453573</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.4740171348428</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R30" t="n">
-        <v>131.813512780591</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S30" t="n">
-        <v>167.5349320065233</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T30" t="n">
-        <v>199.2645559131375</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U30" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V30" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W30" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X30" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="31">
@@ -29667,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G31" t="n">
-        <v>167.8037477875346</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H31" t="n">
-        <v>160.562513631405</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I31" t="n">
-        <v>149.8199109580124</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J31" t="n">
-        <v>113.7581493750595</v>
+        <v>111.8777774804975</v>
       </c>
       <c r="K31" t="n">
-        <v>107.2603538395309</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29706,37 +29708,37 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>111.9922069543109</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>115.0831965984682</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q31" t="n">
-        <v>135.8269107223346</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R31" t="n">
-        <v>168.8747791063441</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S31" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T31" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U31" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V31" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W31" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X31" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y31" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="C32" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="D32" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="E32" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="F32" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="G32" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="H32" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="I32" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="J32" t="n">
-        <v>145.6195444314436</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K32" t="n">
-        <v>166.0564834453126</v>
+        <v>159.4527159458297</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M32" t="n">
-        <v>157.0543278728635</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N32" t="n">
-        <v>154.9352185892194</v>
+        <v>144.3555428192614</v>
       </c>
       <c r="O32" t="n">
-        <v>159.7708943242646</v>
+        <v>149.7808064989777</v>
       </c>
       <c r="P32" t="n">
-        <v>171.2102576926056</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q32" t="n">
-        <v>177.2311132976499</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R32" t="n">
-        <v>189.3659929921726</v>
+        <v>185.6414721897143</v>
       </c>
       <c r="S32" t="n">
-        <v>199.5085518240357</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="T32" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="U32" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="V32" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="W32" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="X32" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="Y32" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
     </row>
     <row r="33">
@@ -29840,61 +29842,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.1201881161769</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H33" t="n">
-        <v>110.0785558085658</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I33" t="n">
-        <v>91.83320009116434</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J33" t="n">
-        <v>105.7379292888031</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K33" t="n">
-        <v>101.7786954452377</v>
+        <v>96.65593532945435</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06357068600039</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>85.54754687317298</v>
+        <v>77.50936201593851</v>
       </c>
       <c r="N33" t="n">
-        <v>73.25754910065231</v>
+        <v>65.00661740861239</v>
       </c>
       <c r="O33" t="n">
-        <v>89.46058297761539</v>
+        <v>81.91259242974628</v>
       </c>
       <c r="P33" t="n">
-        <v>91.32835456453573</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.4740171348428</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R33" t="n">
-        <v>131.813512780591</v>
+        <v>84.32216069751995</v>
       </c>
       <c r="S33" t="n">
-        <v>167.5349320065233</v>
+        <v>166.9456691906952</v>
       </c>
       <c r="T33" t="n">
-        <v>199.2645559131375</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="U33" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="V33" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="W33" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>198.1574282248714</v>
       </c>
     </row>
     <row r="34">
@@ -29919,19 +29921,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.8037477875346</v>
+        <v>167.7771512968053</v>
       </c>
       <c r="H34" t="n">
-        <v>160.562513631405</v>
+        <v>160.3260466501935</v>
       </c>
       <c r="I34" t="n">
-        <v>149.8199109580124</v>
+        <v>149.0200819458983</v>
       </c>
       <c r="J34" t="n">
-        <v>113.7581493750595</v>
+        <v>78.24153615777421</v>
       </c>
       <c r="K34" t="n">
-        <v>107.2603538395309</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29943,37 +29945,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>111.9922069543109</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>115.0831965984682</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.8269107223346</v>
+        <v>72.88801357238802</v>
       </c>
       <c r="R34" t="n">
-        <v>168.8747791063441</v>
+        <v>167.6789041686428</v>
       </c>
       <c r="S34" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="T34" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="U34" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="V34" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="W34" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="X34" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
       <c r="Y34" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248714</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="C35" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="D35" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="E35" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="F35" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="G35" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="H35" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="I35" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="J35" t="n">
-        <v>145.6195444314436</v>
+        <v>140.587183418845</v>
       </c>
       <c r="K35" t="n">
-        <v>166.9949205986973</v>
+        <v>157.8578320274468</v>
       </c>
       <c r="L35" t="n">
-        <v>169.8974587764643</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>54.68337773782252</v>
+        <v>146.643116389296</v>
       </c>
       <c r="N35" t="n">
-        <v>154.9352185892194</v>
+        <v>144.3555428192613</v>
       </c>
       <c r="O35" t="n">
-        <v>159.7708943242646</v>
+        <v>149.7808064989776</v>
       </c>
       <c r="P35" t="n">
-        <v>171.2102576926056</v>
+        <v>162.6839488625736</v>
       </c>
       <c r="Q35" t="n">
-        <v>177.2311132976499</v>
+        <v>170.8282104531397</v>
       </c>
       <c r="R35" t="n">
-        <v>189.3659929921726</v>
+        <v>185.6414721897143</v>
       </c>
       <c r="S35" t="n">
-        <v>199.5085518240357</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="T35" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U35" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V35" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W35" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X35" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y35" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="36">
@@ -30077,61 +30079,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.1201881161769</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H36" t="n">
-        <v>110.0785558085658</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I36" t="n">
-        <v>91.83320009116434</v>
+        <v>90.74094197918076</v>
       </c>
       <c r="J36" t="n">
-        <v>105.7379292888031</v>
+        <v>102.7406895448237</v>
       </c>
       <c r="K36" t="n">
-        <v>101.7786954452377</v>
+        <v>96.65593532945428</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06357068600039</v>
+        <v>83.17538752246571</v>
       </c>
       <c r="M36" t="n">
-        <v>85.54754687317298</v>
+        <v>77.50936201593839</v>
       </c>
       <c r="N36" t="n">
-        <v>73.25754910065231</v>
+        <v>65.00661740861227</v>
       </c>
       <c r="O36" t="n">
-        <v>89.46058297761539</v>
+        <v>81.91259242974618</v>
       </c>
       <c r="P36" t="n">
-        <v>91.32835456453573</v>
+        <v>85.27042670726934</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.4740171348428</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R36" t="n">
-        <v>131.813512780591</v>
+        <v>129.8438305088407</v>
       </c>
       <c r="S36" t="n">
-        <v>167.5349320065233</v>
+        <v>166.9456691906952</v>
       </c>
       <c r="T36" t="n">
-        <v>199.2645559131375</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U36" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V36" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W36" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="37">
@@ -30156,19 +30158,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.8037477875346</v>
+        <v>167.7771512968053</v>
       </c>
       <c r="H37" t="n">
-        <v>160.562513631405</v>
+        <v>160.3260466501935</v>
       </c>
       <c r="I37" t="n">
-        <v>149.8199109580124</v>
+        <v>149.0200819458983</v>
       </c>
       <c r="J37" t="n">
-        <v>113.7581493750595</v>
+        <v>111.8777774804975</v>
       </c>
       <c r="K37" t="n">
-        <v>107.2603538395309</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30183,34 +30185,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q37" t="n">
-        <v>135.8269107223346</v>
+        <v>133.5998173031741</v>
       </c>
       <c r="R37" t="n">
-        <v>168.8747791063441</v>
+        <v>167.6789041686428</v>
       </c>
       <c r="S37" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="T37" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U37" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V37" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W37" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X37" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y37" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="C38" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="D38" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="E38" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="F38" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="G38" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="H38" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="I38" t="n">
-        <v>194.3840502493927</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="J38" t="n">
-        <v>145.6195444314436</v>
+        <v>140.587183418845</v>
       </c>
       <c r="K38" t="n">
-        <v>166.9949205986973</v>
+        <v>81.2592358004735</v>
       </c>
       <c r="L38" t="n">
-        <v>169.8974587764643</v>
+        <v>160.5406869772256</v>
       </c>
       <c r="M38" t="n">
-        <v>157.0543278728635</v>
+        <v>146.643116389296</v>
       </c>
       <c r="N38" t="n">
-        <v>154.9352185892194</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>98.00984227838273</v>
+        <v>149.7808064989776</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>162.6839488625736</v>
       </c>
       <c r="Q38" t="n">
-        <v>177.2311132976499</v>
+        <v>170.8282104531397</v>
       </c>
       <c r="R38" t="n">
-        <v>189.3659929921726</v>
+        <v>185.6414721897143</v>
       </c>
       <c r="S38" t="n">
-        <v>199.5085518240357</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="T38" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U38" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V38" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W38" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X38" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y38" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="39">
@@ -30314,61 +30316,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.1201881161769</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H39" t="n">
-        <v>110.0785558085658</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I39" t="n">
-        <v>91.83320009116434</v>
+        <v>90.74094197918076</v>
       </c>
       <c r="J39" t="n">
-        <v>105.7379292888031</v>
+        <v>102.7406895448237</v>
       </c>
       <c r="K39" t="n">
-        <v>101.7786954452377</v>
+        <v>96.65593532945428</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06357068600039</v>
+        <v>83.17538752246571</v>
       </c>
       <c r="M39" t="n">
-        <v>85.54754687317298</v>
+        <v>77.50936201593839</v>
       </c>
       <c r="N39" t="n">
-        <v>73.25754910065231</v>
+        <v>65.00661740861227</v>
       </c>
       <c r="O39" t="n">
-        <v>89.46058297761539</v>
+        <v>81.91259242974618</v>
       </c>
       <c r="P39" t="n">
-        <v>91.32835456453573</v>
+        <v>85.27042670726934</v>
       </c>
       <c r="Q39" t="n">
-        <v>111.4740171348428</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R39" t="n">
-        <v>131.813512780591</v>
+        <v>129.8438305088407</v>
       </c>
       <c r="S39" t="n">
-        <v>167.5349320065233</v>
+        <v>166.9456691906952</v>
       </c>
       <c r="T39" t="n">
-        <v>199.2645559131375</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U39" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V39" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W39" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="40">
@@ -30393,61 +30395,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8037477875346</v>
+        <v>167.7771512968053</v>
       </c>
       <c r="H40" t="n">
-        <v>160.562513631405</v>
+        <v>160.3260466501935</v>
       </c>
       <c r="I40" t="n">
-        <v>149.8199109580124</v>
+        <v>149.0200819458983</v>
       </c>
       <c r="J40" t="n">
-        <v>113.7581493750595</v>
+        <v>111.8777774804975</v>
       </c>
       <c r="K40" t="n">
-        <v>107.2603538395309</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0484480003895</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>105.4072633376927</v>
       </c>
       <c r="N40" t="n">
-        <v>99.0340077982693</v>
+        <v>94.96401935784729</v>
       </c>
       <c r="O40" t="n">
-        <v>111.9922069543109</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>115.0831965984682</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q40" t="n">
-        <v>135.8269107223346</v>
+        <v>133.5998173031741</v>
       </c>
       <c r="R40" t="n">
-        <v>168.8747791063441</v>
+        <v>167.6789041686428</v>
       </c>
       <c r="S40" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="T40" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U40" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V40" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W40" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X40" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y40" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30459,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="C41" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="D41" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="E41" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="F41" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="G41" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="H41" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="I41" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="J41" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30502,31 +30504,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="R41" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="S41" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="T41" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="U41" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="V41" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="W41" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="X41" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="Y41" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
     </row>
     <row r="42">
@@ -30536,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="C42" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="D42" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="E42" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="F42" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="G42" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="H42" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="I42" t="n">
-        <v>91.83320009116434</v>
+        <v>90.74094197918076</v>
       </c>
       <c r="J42" t="n">
-        <v>105.7379292888031</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>101.7786954452377</v>
+        <v>96.65593532945428</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06357068600039</v>
+        <v>83.17538752246571</v>
       </c>
       <c r="M42" t="n">
-        <v>85.54754687317298</v>
+        <v>77.50936201593839</v>
       </c>
       <c r="N42" t="n">
-        <v>73.25754910065231</v>
+        <v>65.00661740861227</v>
       </c>
       <c r="O42" t="n">
-        <v>89.46058297761539</v>
+        <v>81.91259242974618</v>
       </c>
       <c r="P42" t="n">
-        <v>58.65720812294305</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.0785558085658</v>
+        <v>91.44716486116697</v>
       </c>
       <c r="R42" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="S42" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="T42" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="U42" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="V42" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="W42" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="X42" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="Y42" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="D43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="E43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="F43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="G43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="H43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="I43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="J43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="K43" t="n">
-        <v>107.2603538395309</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30654,37 +30656,37 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>110.0785558085658</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="R43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="S43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="U43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="V43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="W43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="X43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="Y43" t="n">
-        <v>110.0785558085658</v>
+        <v>97.74133359109416</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="C44" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="D44" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="E44" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="G44" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="H44" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="I44" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30730,7 +30732,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0.06352019931774697</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30739,31 +30741,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="R44" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="S44" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="T44" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="V44" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="W44" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="X44" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
     </row>
     <row r="45">
@@ -30773,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="C45" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="D45" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="E45" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="F45" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="H45" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="I45" t="n">
-        <v>0.09028942617308644</v>
+        <v>90.74094197918076</v>
       </c>
       <c r="J45" t="n">
-        <v>0.09028942617308644</v>
+        <v>91.93092705929148</v>
       </c>
       <c r="K45" t="n">
-        <v>0.09028942617308644</v>
+        <v>96.65593532945428</v>
       </c>
       <c r="L45" t="n">
-        <v>0.09028942617308644</v>
+        <v>83.17538752246571</v>
       </c>
       <c r="M45" t="n">
-        <v>0.09028942617308644</v>
+        <v>77.50936201593839</v>
       </c>
       <c r="N45" t="n">
-        <v>0.09028942617308644</v>
+        <v>65.00661740861227</v>
       </c>
       <c r="O45" t="n">
-        <v>0.09028942617308644</v>
+        <v>81.91259242974618</v>
       </c>
       <c r="P45" t="n">
-        <v>0.09028942617308644</v>
+        <v>85.27042670726934</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="R45" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="S45" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="T45" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="V45" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="W45" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="X45" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
     </row>
     <row r="46">
@@ -30852,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="C46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="D46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="G46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="H46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="I46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="J46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="K46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30894,34 +30896,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="R46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="S46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="T46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="V46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="W46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="X46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.09028942617308644</v>
+        <v>97.74133359109416</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4174006697623553</v>
+        <v>0.4766929834942033</v>
       </c>
       <c r="H11" t="n">
-        <v>4.274704609203722</v>
+        <v>4.881932017210011</v>
       </c>
       <c r="I11" t="n">
-        <v>16.09183932101322</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J11" t="n">
-        <v>35.42636009524274</v>
+        <v>40.45872110784118</v>
       </c>
       <c r="K11" t="n">
-        <v>53.09493044628324</v>
+        <v>60.63713509915082</v>
       </c>
       <c r="L11" t="n">
-        <v>65.86895619352295</v>
+        <v>75.22572799276156</v>
       </c>
       <c r="M11" t="n">
-        <v>73.29190535440922</v>
+        <v>83.70311683797659</v>
       </c>
       <c r="N11" t="n">
-        <v>74.47784500737153</v>
+        <v>85.0575207773295</v>
       </c>
       <c r="O11" t="n">
-        <v>70.3273170974221</v>
+        <v>80.31740492270902</v>
       </c>
       <c r="P11" t="n">
-        <v>60.02273806266394</v>
+        <v>68.54904689269586</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07457657679958</v>
+        <v>51.47747942130969</v>
       </c>
       <c r="R11" t="n">
-        <v>26.21954482195957</v>
+        <v>29.94406562441778</v>
       </c>
       <c r="S11" t="n">
-        <v>9.511517762209682</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T11" t="n">
-        <v>1.827171431884711</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03339205358098842</v>
+        <v>0.03813543867953626</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2233290470336981</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H12" t="n">
-        <v>2.156888427930716</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I12" t="n">
-        <v>7.689179908835659</v>
+        <v>8.781438020819227</v>
       </c>
       <c r="J12" t="n">
-        <v>21.09969737786356</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K12" t="n">
-        <v>36.06274352912133</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L12" t="n">
-        <v>48.4908090938738</v>
+        <v>55.37899225740838</v>
       </c>
       <c r="M12" t="n">
-        <v>56.58648704884534</v>
+        <v>64.62467190607981</v>
       </c>
       <c r="N12" t="n">
-        <v>58.08416298268099</v>
+        <v>66.33509467472092</v>
       </c>
       <c r="O12" t="n">
-        <v>53.13566146682904</v>
+        <v>60.68365201469815</v>
       </c>
       <c r="P12" t="n">
-        <v>42.64605284979451</v>
+        <v>48.70398070706082</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.50775695117873</v>
+        <v>32.5573212940029</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86599118337295</v>
+        <v>15.83567345512319</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148239097314521</v>
+        <v>4.737501913142598</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9001727816840723</v>
+        <v>1.028043508424569</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0146927004627433</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1872315709241386</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H13" t="n">
-        <v>1.664658876034615</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I13" t="n">
-        <v>5.630563969245915</v>
+        <v>6.430392981359967</v>
       </c>
       <c r="J13" t="n">
-        <v>13.2372720643366</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K13" t="n">
-        <v>21.75290433100446</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83622828084875</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M13" t="n">
-        <v>29.34939979495383</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N13" t="n">
-        <v>28.65153666696389</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O13" t="n">
-        <v>26.46433149753189</v>
+        <v>30.22362456897968</v>
       </c>
       <c r="P13" t="n">
-        <v>22.64480745067944</v>
+        <v>25.86153211124938</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.67809090711128</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R13" t="n">
-        <v>8.418612270825356</v>
+        <v>9.614487208526716</v>
       </c>
       <c r="S13" t="n">
-        <v>3.262935649650669</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7999894394031374</v>
+        <v>0.9136289907010831</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01021263114131666</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4174006697623553</v>
+        <v>0.4766929834942033</v>
       </c>
       <c r="H14" t="n">
-        <v>4.274704609203722</v>
+        <v>4.881932017210011</v>
       </c>
       <c r="I14" t="n">
-        <v>16.09183932101322</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J14" t="n">
-        <v>35.42636009524274</v>
+        <v>40.45872110784118</v>
       </c>
       <c r="K14" t="n">
-        <v>53.09493044628324</v>
+        <v>60.63713509915082</v>
       </c>
       <c r="L14" t="n">
-        <v>65.86895619352295</v>
+        <v>75.22572799276156</v>
       </c>
       <c r="M14" t="n">
-        <v>73.29190535440922</v>
+        <v>83.70311683797659</v>
       </c>
       <c r="N14" t="n">
-        <v>74.47784500737153</v>
+        <v>85.0575207773295</v>
       </c>
       <c r="O14" t="n">
-        <v>70.3273170974221</v>
+        <v>80.31740492270902</v>
       </c>
       <c r="P14" t="n">
-        <v>60.02273806266394</v>
+        <v>68.54904689269586</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07457657679958</v>
+        <v>51.47747942130969</v>
       </c>
       <c r="R14" t="n">
-        <v>26.21954482195957</v>
+        <v>29.94406562441778</v>
       </c>
       <c r="S14" t="n">
-        <v>9.511517762209682</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T14" t="n">
-        <v>1.827171431884711</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03339205358098842</v>
+        <v>0.03813543867953626</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2233290470336981</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H15" t="n">
-        <v>2.156888427930716</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I15" t="n">
-        <v>7.689179908835659</v>
+        <v>8.781438020819227</v>
       </c>
       <c r="J15" t="n">
-        <v>21.09969737786356</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K15" t="n">
-        <v>36.06274352912133</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L15" t="n">
-        <v>48.4908090938738</v>
+        <v>55.37899225740838</v>
       </c>
       <c r="M15" t="n">
-        <v>56.58648704884534</v>
+        <v>64.62467190607981</v>
       </c>
       <c r="N15" t="n">
-        <v>58.08416298268099</v>
+        <v>66.33509467472092</v>
       </c>
       <c r="O15" t="n">
-        <v>53.13566146682904</v>
+        <v>60.68365201469815</v>
       </c>
       <c r="P15" t="n">
-        <v>42.64605284979451</v>
+        <v>48.70398070706082</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.50775695117873</v>
+        <v>32.5573212940029</v>
       </c>
       <c r="R15" t="n">
-        <v>13.86599118337295</v>
+        <v>15.83567345512319</v>
       </c>
       <c r="S15" t="n">
-        <v>4.148239097314521</v>
+        <v>4.737501913142598</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9001727816840723</v>
+        <v>1.028043508424569</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0146927004627433</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1872315709241386</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H16" t="n">
-        <v>1.664658876034615</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I16" t="n">
-        <v>5.630563969245915</v>
+        <v>6.430392981359967</v>
       </c>
       <c r="J16" t="n">
-        <v>13.2372720643366</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K16" t="n">
-        <v>21.75290433100446</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L16" t="n">
-        <v>27.83622828084875</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M16" t="n">
-        <v>29.34939979495383</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N16" t="n">
-        <v>28.65153666696389</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O16" t="n">
-        <v>26.46433149753189</v>
+        <v>30.22362456897968</v>
       </c>
       <c r="P16" t="n">
-        <v>22.64480745067944</v>
+        <v>25.86153211124938</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.67809090711128</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R16" t="n">
-        <v>8.418612270825356</v>
+        <v>9.614487208526716</v>
       </c>
       <c r="S16" t="n">
-        <v>3.262935649650669</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7999894394031374</v>
+        <v>0.9136289907010831</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01021263114131666</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4174006697623553</v>
+        <v>0.4766929834942033</v>
       </c>
       <c r="H17" t="n">
-        <v>4.274704609203722</v>
+        <v>4.881932017210011</v>
       </c>
       <c r="I17" t="n">
-        <v>16.09183932101322</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J17" t="n">
-        <v>35.42636009524274</v>
+        <v>40.45872110784118</v>
       </c>
       <c r="K17" t="n">
-        <v>53.09493044628324</v>
+        <v>60.63713509915082</v>
       </c>
       <c r="L17" t="n">
-        <v>65.86895619352295</v>
+        <v>75.22572799276156</v>
       </c>
       <c r="M17" t="n">
-        <v>73.29190535440922</v>
+        <v>83.70311683797659</v>
       </c>
       <c r="N17" t="n">
-        <v>74.47784500737153</v>
+        <v>85.0575207773295</v>
       </c>
       <c r="O17" t="n">
-        <v>70.3273170974221</v>
+        <v>80.31740492270902</v>
       </c>
       <c r="P17" t="n">
-        <v>60.02273806266394</v>
+        <v>68.54904689269586</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07457657679958</v>
+        <v>51.47747942130969</v>
       </c>
       <c r="R17" t="n">
-        <v>26.21954482195957</v>
+        <v>29.94406562441778</v>
       </c>
       <c r="S17" t="n">
-        <v>9.511517762209682</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T17" t="n">
-        <v>1.827171431884711</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03339205358098842</v>
+        <v>0.03813543867953626</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2233290470336981</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H18" t="n">
-        <v>2.156888427930716</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I18" t="n">
-        <v>7.689179908835659</v>
+        <v>8.781438020819227</v>
       </c>
       <c r="J18" t="n">
-        <v>21.09969737786356</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K18" t="n">
-        <v>36.06274352912133</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L18" t="n">
-        <v>48.4908090938738</v>
+        <v>55.37899225740838</v>
       </c>
       <c r="M18" t="n">
-        <v>56.58648704884534</v>
+        <v>64.62467190607981</v>
       </c>
       <c r="N18" t="n">
-        <v>58.08416298268099</v>
+        <v>66.33509467472092</v>
       </c>
       <c r="O18" t="n">
-        <v>53.13566146682904</v>
+        <v>60.68365201469815</v>
       </c>
       <c r="P18" t="n">
-        <v>42.64605284979451</v>
+        <v>48.70398070706082</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.50775695117873</v>
+        <v>32.5573212940029</v>
       </c>
       <c r="R18" t="n">
-        <v>13.86599118337295</v>
+        <v>15.83567345512319</v>
       </c>
       <c r="S18" t="n">
-        <v>4.148239097314521</v>
+        <v>4.737501913142598</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9001727816840723</v>
+        <v>1.028043508424569</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0146927004627433</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1872315709241386</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H19" t="n">
-        <v>1.664658876034615</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I19" t="n">
-        <v>5.630563969245915</v>
+        <v>6.430392981359967</v>
       </c>
       <c r="J19" t="n">
-        <v>13.2372720643366</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K19" t="n">
-        <v>21.75290433100446</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L19" t="n">
-        <v>27.83622828084875</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M19" t="n">
-        <v>29.34939979495383</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N19" t="n">
-        <v>28.65153666696389</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O19" t="n">
-        <v>26.46433149753189</v>
+        <v>30.22362456897968</v>
       </c>
       <c r="P19" t="n">
-        <v>22.64480745067944</v>
+        <v>25.86153211124938</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.67809090711128</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R19" t="n">
-        <v>8.418612270825356</v>
+        <v>9.614487208526716</v>
       </c>
       <c r="S19" t="n">
-        <v>3.262935649650669</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7999894394031374</v>
+        <v>0.9136289907010831</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01021263114131666</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4174006697623553</v>
+        <v>0.4766929834942033</v>
       </c>
       <c r="H20" t="n">
-        <v>4.274704609203722</v>
+        <v>4.881932017210011</v>
       </c>
       <c r="I20" t="n">
-        <v>16.09183932101322</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J20" t="n">
-        <v>35.42636009524274</v>
+        <v>40.45872110784118</v>
       </c>
       <c r="K20" t="n">
-        <v>53.09493044628324</v>
+        <v>60.63713509915082</v>
       </c>
       <c r="L20" t="n">
-        <v>65.86895619352295</v>
+        <v>75.22572799276156</v>
       </c>
       <c r="M20" t="n">
-        <v>73.29190535440922</v>
+        <v>83.70311683797659</v>
       </c>
       <c r="N20" t="n">
-        <v>74.47784500737153</v>
+        <v>85.0575207773295</v>
       </c>
       <c r="O20" t="n">
-        <v>70.3273170974221</v>
+        <v>80.31740492270902</v>
       </c>
       <c r="P20" t="n">
-        <v>60.02273806266394</v>
+        <v>68.54904689269586</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07457657679958</v>
+        <v>51.47747942130969</v>
       </c>
       <c r="R20" t="n">
-        <v>26.21954482195957</v>
+        <v>29.94406562441778</v>
       </c>
       <c r="S20" t="n">
-        <v>9.511517762209682</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T20" t="n">
-        <v>1.827171431884711</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03339205358098842</v>
+        <v>0.03813543867953626</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2233290470336981</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H21" t="n">
-        <v>2.156888427930716</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I21" t="n">
-        <v>7.689179908835659</v>
+        <v>8.781438020819227</v>
       </c>
       <c r="J21" t="n">
-        <v>21.09969737786356</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K21" t="n">
-        <v>36.06274352912133</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L21" t="n">
-        <v>48.4908090938738</v>
+        <v>55.37899225740838</v>
       </c>
       <c r="M21" t="n">
-        <v>56.58648704884534</v>
+        <v>64.62467190607981</v>
       </c>
       <c r="N21" t="n">
-        <v>58.08416298268099</v>
+        <v>66.33509467472092</v>
       </c>
       <c r="O21" t="n">
-        <v>53.13566146682904</v>
+        <v>60.68365201469815</v>
       </c>
       <c r="P21" t="n">
-        <v>42.64605284979451</v>
+        <v>48.70398070706082</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.50775695117873</v>
+        <v>32.5573212940029</v>
       </c>
       <c r="R21" t="n">
-        <v>13.86599118337295</v>
+        <v>15.83567345512319</v>
       </c>
       <c r="S21" t="n">
-        <v>4.148239097314521</v>
+        <v>4.737501913142598</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9001727816840723</v>
+        <v>1.028043508424569</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0146927004627433</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1872315709241386</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H22" t="n">
-        <v>1.664658876034615</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I22" t="n">
-        <v>5.630563969245915</v>
+        <v>6.430392981359967</v>
       </c>
       <c r="J22" t="n">
-        <v>13.2372720643366</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K22" t="n">
-        <v>21.75290433100446</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L22" t="n">
-        <v>27.83622828084875</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M22" t="n">
-        <v>29.34939979495383</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N22" t="n">
-        <v>28.65153666696389</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O22" t="n">
-        <v>26.46433149753189</v>
+        <v>30.22362456897968</v>
       </c>
       <c r="P22" t="n">
-        <v>22.64480745067944</v>
+        <v>25.86153211124938</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.67809090711128</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R22" t="n">
-        <v>8.418612270825356</v>
+        <v>9.614487208526716</v>
       </c>
       <c r="S22" t="n">
-        <v>3.262935649650669</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7999894394031374</v>
+        <v>0.9136289907010831</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01021263114131666</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4174006697623553</v>
+        <v>0.4766929834942033</v>
       </c>
       <c r="H23" t="n">
-        <v>4.274704609203722</v>
+        <v>4.881932017210011</v>
       </c>
       <c r="I23" t="n">
-        <v>16.09183932101322</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J23" t="n">
-        <v>35.42636009524274</v>
+        <v>40.45872110784118</v>
       </c>
       <c r="K23" t="n">
-        <v>53.09493044628324</v>
+        <v>60.63713509915082</v>
       </c>
       <c r="L23" t="n">
-        <v>65.86895619352295</v>
+        <v>75.22572799276156</v>
       </c>
       <c r="M23" t="n">
-        <v>73.29190535440922</v>
+        <v>83.70311683797659</v>
       </c>
       <c r="N23" t="n">
-        <v>74.47784500737153</v>
+        <v>85.0575207773295</v>
       </c>
       <c r="O23" t="n">
-        <v>70.3273170974221</v>
+        <v>80.31740492270902</v>
       </c>
       <c r="P23" t="n">
-        <v>60.02273806266394</v>
+        <v>68.54904689269586</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07457657679958</v>
+        <v>51.47747942130969</v>
       </c>
       <c r="R23" t="n">
-        <v>26.21954482195957</v>
+        <v>29.94406562441778</v>
       </c>
       <c r="S23" t="n">
-        <v>9.511517762209682</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T23" t="n">
-        <v>1.827171431884711</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03339205358098842</v>
+        <v>0.03813543867953626</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2233290470336981</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H24" t="n">
-        <v>2.156888427930716</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I24" t="n">
-        <v>7.689179908835659</v>
+        <v>8.781438020819227</v>
       </c>
       <c r="J24" t="n">
-        <v>21.09969737786356</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K24" t="n">
-        <v>36.06274352912133</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L24" t="n">
-        <v>48.4908090938738</v>
+        <v>55.37899225740838</v>
       </c>
       <c r="M24" t="n">
-        <v>56.58648704884534</v>
+        <v>64.62467190607981</v>
       </c>
       <c r="N24" t="n">
-        <v>58.08416298268099</v>
+        <v>66.33509467472092</v>
       </c>
       <c r="O24" t="n">
-        <v>53.13566146682904</v>
+        <v>60.68365201469815</v>
       </c>
       <c r="P24" t="n">
-        <v>42.64605284979451</v>
+        <v>48.70398070706082</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.50775695117873</v>
+        <v>32.5573212940029</v>
       </c>
       <c r="R24" t="n">
-        <v>13.86599118337295</v>
+        <v>15.83567345512319</v>
       </c>
       <c r="S24" t="n">
-        <v>4.148239097314521</v>
+        <v>4.737501913142598</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9001727816840723</v>
+        <v>1.028043508424569</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0146927004627433</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1872315709241386</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H25" t="n">
-        <v>1.664658876034615</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I25" t="n">
-        <v>5.630563969245915</v>
+        <v>6.430392981359967</v>
       </c>
       <c r="J25" t="n">
-        <v>13.2372720643366</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K25" t="n">
-        <v>21.75290433100446</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L25" t="n">
-        <v>27.83622828084875</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M25" t="n">
-        <v>29.34939979495383</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N25" t="n">
-        <v>28.65153666696389</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O25" t="n">
-        <v>26.46433149753189</v>
+        <v>30.22362456897968</v>
       </c>
       <c r="P25" t="n">
-        <v>22.64480745067944</v>
+        <v>25.86153211124938</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.67809090711128</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R25" t="n">
-        <v>8.418612270825356</v>
+        <v>9.614487208526716</v>
       </c>
       <c r="S25" t="n">
-        <v>3.262935649650669</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7999894394031374</v>
+        <v>0.9136289907010831</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01021263114131666</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4174006697623553</v>
+        <v>0.4766929834942033</v>
       </c>
       <c r="H26" t="n">
-        <v>4.274704609203722</v>
+        <v>4.881932017210011</v>
       </c>
       <c r="I26" t="n">
-        <v>16.09183932101322</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J26" t="n">
-        <v>35.42636009524274</v>
+        <v>40.45872110784118</v>
       </c>
       <c r="K26" t="n">
-        <v>53.09493044628324</v>
+        <v>60.63713509915082</v>
       </c>
       <c r="L26" t="n">
-        <v>65.86895619352295</v>
+        <v>75.22572799276156</v>
       </c>
       <c r="M26" t="n">
-        <v>73.29190535440922</v>
+        <v>83.70311683797659</v>
       </c>
       <c r="N26" t="n">
-        <v>74.47784500737153</v>
+        <v>85.0575207773295</v>
       </c>
       <c r="O26" t="n">
-        <v>70.3273170974221</v>
+        <v>80.31740492270902</v>
       </c>
       <c r="P26" t="n">
-        <v>60.02273806266394</v>
+        <v>68.54904689269586</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07457657679958</v>
+        <v>51.47747942130969</v>
       </c>
       <c r="R26" t="n">
-        <v>26.21954482195957</v>
+        <v>29.94406562441778</v>
       </c>
       <c r="S26" t="n">
-        <v>9.511517762209682</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T26" t="n">
-        <v>1.827171431884711</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03339205358098842</v>
+        <v>0.03813543867953626</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2233290470336981</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H27" t="n">
-        <v>2.156888427930716</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I27" t="n">
-        <v>7.689179908835659</v>
+        <v>8.781438020819227</v>
       </c>
       <c r="J27" t="n">
-        <v>21.09969737786356</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K27" t="n">
-        <v>36.06274352912133</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L27" t="n">
-        <v>48.4908090938738</v>
+        <v>55.37899225740838</v>
       </c>
       <c r="M27" t="n">
-        <v>56.58648704884534</v>
+        <v>64.62467190607981</v>
       </c>
       <c r="N27" t="n">
-        <v>58.08416298268099</v>
+        <v>66.33509467472092</v>
       </c>
       <c r="O27" t="n">
-        <v>53.13566146682904</v>
+        <v>60.68365201469815</v>
       </c>
       <c r="P27" t="n">
-        <v>42.64605284979451</v>
+        <v>48.70398070706082</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.50775695117873</v>
+        <v>32.5573212940029</v>
       </c>
       <c r="R27" t="n">
-        <v>13.86599118337295</v>
+        <v>15.83567345512319</v>
       </c>
       <c r="S27" t="n">
-        <v>4.148239097314521</v>
+        <v>4.737501913142598</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9001727816840723</v>
+        <v>1.028043508424569</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0146927004627433</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1872315709241386</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H28" t="n">
-        <v>1.664658876034615</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I28" t="n">
-        <v>5.630563969245915</v>
+        <v>6.430392981359967</v>
       </c>
       <c r="J28" t="n">
-        <v>13.2372720643366</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K28" t="n">
-        <v>21.75290433100446</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L28" t="n">
-        <v>27.83622828084875</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M28" t="n">
-        <v>29.34939979495383</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N28" t="n">
-        <v>28.65153666696389</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O28" t="n">
-        <v>26.46433149753189</v>
+        <v>30.22362456897968</v>
       </c>
       <c r="P28" t="n">
-        <v>22.64480745067944</v>
+        <v>25.86153211124938</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67809090711128</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R28" t="n">
-        <v>8.418612270825356</v>
+        <v>9.614487208526716</v>
       </c>
       <c r="S28" t="n">
-        <v>3.262935649650669</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7999894394031374</v>
+        <v>0.9136289907010831</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01021263114131666</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4174006697623553</v>
+        <v>0.4766929834942033</v>
       </c>
       <c r="H29" t="n">
-        <v>4.274704609203722</v>
+        <v>4.881932017210011</v>
       </c>
       <c r="I29" t="n">
-        <v>16.09183932101322</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J29" t="n">
-        <v>35.42636009524274</v>
+        <v>40.45872110784118</v>
       </c>
       <c r="K29" t="n">
-        <v>53.09493044628324</v>
+        <v>60.63713509915082</v>
       </c>
       <c r="L29" t="n">
-        <v>65.86895619352295</v>
+        <v>75.22572799276156</v>
       </c>
       <c r="M29" t="n">
-        <v>73.29190535440922</v>
+        <v>83.70311683797659</v>
       </c>
       <c r="N29" t="n">
-        <v>74.47784500737153</v>
+        <v>85.0575207773295</v>
       </c>
       <c r="O29" t="n">
-        <v>70.3273170974221</v>
+        <v>80.31740492270902</v>
       </c>
       <c r="P29" t="n">
-        <v>60.02273806266394</v>
+        <v>68.54904689269586</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07457657679958</v>
+        <v>51.47747942130969</v>
       </c>
       <c r="R29" t="n">
-        <v>26.21954482195957</v>
+        <v>29.94406562441778</v>
       </c>
       <c r="S29" t="n">
-        <v>9.511517762209682</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T29" t="n">
-        <v>1.827171431884711</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03339205358098842</v>
+        <v>0.03813543867953626</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2233290470336981</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H30" t="n">
-        <v>2.156888427930716</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I30" t="n">
-        <v>7.689179908835659</v>
+        <v>8.781438020819227</v>
       </c>
       <c r="J30" t="n">
-        <v>21.09969737786356</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K30" t="n">
-        <v>36.06274352912133</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L30" t="n">
-        <v>48.4908090938738</v>
+        <v>55.37899225740838</v>
       </c>
       <c r="M30" t="n">
-        <v>56.58648704884534</v>
+        <v>64.62467190607981</v>
       </c>
       <c r="N30" t="n">
-        <v>58.08416298268099</v>
+        <v>66.33509467472092</v>
       </c>
       <c r="O30" t="n">
-        <v>53.13566146682904</v>
+        <v>60.68365201469815</v>
       </c>
       <c r="P30" t="n">
-        <v>42.64605284979451</v>
+        <v>48.70398070706082</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.50775695117873</v>
+        <v>32.5573212940029</v>
       </c>
       <c r="R30" t="n">
-        <v>13.86599118337295</v>
+        <v>15.83567345512319</v>
       </c>
       <c r="S30" t="n">
-        <v>4.148239097314521</v>
+        <v>4.737501913142598</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9001727816840723</v>
+        <v>1.028043508424569</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0146927004627433</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1872315709241386</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H31" t="n">
-        <v>1.664658876034615</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I31" t="n">
-        <v>5.630563969245915</v>
+        <v>6.430392981359967</v>
       </c>
       <c r="J31" t="n">
-        <v>13.2372720643366</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K31" t="n">
-        <v>21.75290433100446</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L31" t="n">
-        <v>27.83622828084875</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M31" t="n">
-        <v>29.34939979495383</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N31" t="n">
-        <v>28.65153666696389</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O31" t="n">
-        <v>26.46433149753189</v>
+        <v>30.22362456897968</v>
       </c>
       <c r="P31" t="n">
-        <v>22.64480745067944</v>
+        <v>25.86153211124938</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67809090711128</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R31" t="n">
-        <v>8.418612270825356</v>
+        <v>9.614487208526716</v>
       </c>
       <c r="S31" t="n">
-        <v>3.262935649650669</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7999894394031374</v>
+        <v>0.9136289907010831</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01021263114131666</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4174006697623553</v>
+        <v>0.4766929834942033</v>
       </c>
       <c r="H32" t="n">
-        <v>4.274704609203722</v>
+        <v>4.881932017210011</v>
       </c>
       <c r="I32" t="n">
-        <v>16.09183932101322</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J32" t="n">
-        <v>35.42636009524274</v>
+        <v>40.45872110784118</v>
       </c>
       <c r="K32" t="n">
-        <v>53.09493044628324</v>
+        <v>60.63713509915082</v>
       </c>
       <c r="L32" t="n">
-        <v>65.86895619352295</v>
+        <v>75.22572799276156</v>
       </c>
       <c r="M32" t="n">
-        <v>73.29190535440922</v>
+        <v>83.70311683797659</v>
       </c>
       <c r="N32" t="n">
-        <v>74.47784500737153</v>
+        <v>85.0575207773295</v>
       </c>
       <c r="O32" t="n">
-        <v>70.3273170974221</v>
+        <v>80.31740492270902</v>
       </c>
       <c r="P32" t="n">
-        <v>60.02273806266394</v>
+        <v>68.54904689269586</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07457657679958</v>
+        <v>51.47747942130969</v>
       </c>
       <c r="R32" t="n">
-        <v>26.21954482195957</v>
+        <v>29.94406562441778</v>
       </c>
       <c r="S32" t="n">
-        <v>9.511517762209682</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T32" t="n">
-        <v>1.827171431884711</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03339205358098842</v>
+        <v>0.03813543867953626</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2233290470336981</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H33" t="n">
-        <v>2.156888427930716</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I33" t="n">
-        <v>7.689179908835659</v>
+        <v>8.781438020819227</v>
       </c>
       <c r="J33" t="n">
-        <v>21.09969737786356</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K33" t="n">
-        <v>36.06274352912133</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L33" t="n">
-        <v>48.4908090938738</v>
+        <v>55.37899225740838</v>
       </c>
       <c r="M33" t="n">
-        <v>56.58648704884534</v>
+        <v>64.62467190607981</v>
       </c>
       <c r="N33" t="n">
-        <v>58.08416298268099</v>
+        <v>66.33509467472092</v>
       </c>
       <c r="O33" t="n">
-        <v>53.13566146682904</v>
+        <v>60.68365201469815</v>
       </c>
       <c r="P33" t="n">
-        <v>42.64605284979451</v>
+        <v>48.70398070706082</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.50775695117873</v>
+        <v>32.5573212940029</v>
       </c>
       <c r="R33" t="n">
-        <v>13.86599118337295</v>
+        <v>15.83567345512319</v>
       </c>
       <c r="S33" t="n">
-        <v>4.148239097314521</v>
+        <v>4.737501913142598</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9001727816840723</v>
+        <v>1.028043508424569</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0146927004627433</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1872315709241386</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H34" t="n">
-        <v>1.664658876034615</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I34" t="n">
-        <v>5.630563969245915</v>
+        <v>6.430392981359967</v>
       </c>
       <c r="J34" t="n">
-        <v>13.2372720643366</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K34" t="n">
-        <v>21.75290433100446</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L34" t="n">
-        <v>27.83622828084875</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M34" t="n">
-        <v>29.34939979495383</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N34" t="n">
-        <v>28.65153666696389</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O34" t="n">
-        <v>26.46433149753189</v>
+        <v>30.22362456897968</v>
       </c>
       <c r="P34" t="n">
-        <v>22.64480745067944</v>
+        <v>25.86153211124938</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67809090711128</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R34" t="n">
-        <v>8.418612270825356</v>
+        <v>9.614487208526716</v>
       </c>
       <c r="S34" t="n">
-        <v>3.262935649650669</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7999894394031374</v>
+        <v>0.9136289907010831</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01021263114131666</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4174006697623553</v>
+        <v>0.4766929834942041</v>
       </c>
       <c r="H35" t="n">
-        <v>4.274704609203722</v>
+        <v>4.881932017210019</v>
       </c>
       <c r="I35" t="n">
-        <v>16.09183932101322</v>
+        <v>18.37770624616032</v>
       </c>
       <c r="J35" t="n">
-        <v>35.42636009524274</v>
+        <v>40.45872110784124</v>
       </c>
       <c r="K35" t="n">
-        <v>53.09493044628324</v>
+        <v>60.63713509915092</v>
       </c>
       <c r="L35" t="n">
-        <v>65.86895619352295</v>
+        <v>75.22572799276168</v>
       </c>
       <c r="M35" t="n">
-        <v>73.29190535440922</v>
+        <v>83.70311683797674</v>
       </c>
       <c r="N35" t="n">
-        <v>74.47784500737153</v>
+        <v>85.05752077732964</v>
       </c>
       <c r="O35" t="n">
-        <v>70.3273170974221</v>
+        <v>80.31740492270914</v>
       </c>
       <c r="P35" t="n">
-        <v>60.02273806266394</v>
+        <v>68.54904689269597</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.07457657679958</v>
+        <v>51.47747942130977</v>
       </c>
       <c r="R35" t="n">
-        <v>26.21954482195957</v>
+        <v>29.94406562441783</v>
       </c>
       <c r="S35" t="n">
-        <v>9.511517762209682</v>
+        <v>10.86264136137419</v>
       </c>
       <c r="T35" t="n">
-        <v>1.827171431884711</v>
+        <v>2.08672353524588</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03339205358098842</v>
+        <v>0.03813543867953632</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2233290470336981</v>
+        <v>0.2550532316874888</v>
       </c>
       <c r="H36" t="n">
-        <v>2.156888427930716</v>
+        <v>2.463277263929168</v>
       </c>
       <c r="I36" t="n">
-        <v>7.689179908835659</v>
+        <v>8.781438020819241</v>
       </c>
       <c r="J36" t="n">
-        <v>21.09969737786356</v>
+        <v>24.09693712184297</v>
       </c>
       <c r="K36" t="n">
-        <v>36.06274352912133</v>
+        <v>41.18550364490471</v>
       </c>
       <c r="L36" t="n">
-        <v>48.4908090938738</v>
+        <v>55.37899225740848</v>
       </c>
       <c r="M36" t="n">
-        <v>56.58648704884534</v>
+        <v>64.62467190607993</v>
       </c>
       <c r="N36" t="n">
-        <v>58.08416298268099</v>
+        <v>66.33509467472103</v>
       </c>
       <c r="O36" t="n">
-        <v>53.13566146682904</v>
+        <v>60.68365201469825</v>
       </c>
       <c r="P36" t="n">
-        <v>42.64605284979451</v>
+        <v>48.70398070706091</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.50775695117873</v>
+        <v>32.55732129400295</v>
       </c>
       <c r="R36" t="n">
-        <v>13.86599118337295</v>
+        <v>15.83567345512321</v>
       </c>
       <c r="S36" t="n">
-        <v>4.148239097314521</v>
+        <v>4.737501913142606</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9001727816840723</v>
+        <v>1.02804350842457</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0146927004627433</v>
+        <v>0.0167798178741769</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1872315709241386</v>
+        <v>0.2138280616534454</v>
       </c>
       <c r="H37" t="n">
-        <v>1.664658876034615</v>
+        <v>1.901125857246089</v>
       </c>
       <c r="I37" t="n">
-        <v>5.630563969245915</v>
+        <v>6.430392981359978</v>
       </c>
       <c r="J37" t="n">
-        <v>13.2372720643366</v>
+        <v>15.11764395889859</v>
       </c>
       <c r="K37" t="n">
-        <v>21.75290433100446</v>
+        <v>24.8429329811912</v>
       </c>
       <c r="L37" t="n">
-        <v>27.83622828084875</v>
+        <v>31.79040109345861</v>
       </c>
       <c r="M37" t="n">
-        <v>29.34939979495383</v>
+        <v>33.51852060991235</v>
       </c>
       <c r="N37" t="n">
-        <v>28.65153666696389</v>
+        <v>32.7215251073859</v>
       </c>
       <c r="O37" t="n">
-        <v>26.46433149753189</v>
+        <v>30.22362456897973</v>
       </c>
       <c r="P37" t="n">
-        <v>22.64480745067944</v>
+        <v>25.86153211124942</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.67809090711128</v>
+        <v>17.90518432627169</v>
       </c>
       <c r="R37" t="n">
-        <v>8.418612270825356</v>
+        <v>9.614487208526732</v>
       </c>
       <c r="S37" t="n">
-        <v>3.262935649650669</v>
+        <v>3.726439947178679</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7999894394031374</v>
+        <v>0.9136289907010846</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01021263114131666</v>
+        <v>0.01166334881746067</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4174006697623553</v>
+        <v>0.4766929834942041</v>
       </c>
       <c r="H38" t="n">
-        <v>4.274704609203722</v>
+        <v>4.881932017210019</v>
       </c>
       <c r="I38" t="n">
-        <v>16.09183932101322</v>
+        <v>18.37770624616032</v>
       </c>
       <c r="J38" t="n">
-        <v>35.42636009524274</v>
+        <v>40.45872110784124</v>
       </c>
       <c r="K38" t="n">
-        <v>53.09493044628324</v>
+        <v>60.63713509915092</v>
       </c>
       <c r="L38" t="n">
-        <v>65.86895619352295</v>
+        <v>75.22572799276168</v>
       </c>
       <c r="M38" t="n">
-        <v>73.29190535440922</v>
+        <v>83.70311683797674</v>
       </c>
       <c r="N38" t="n">
-        <v>74.47784500737153</v>
+        <v>85.05752077732964</v>
       </c>
       <c r="O38" t="n">
-        <v>70.3273170974221</v>
+        <v>80.31740492270914</v>
       </c>
       <c r="P38" t="n">
-        <v>60.02273806266394</v>
+        <v>68.54904689269597</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.07457657679958</v>
+        <v>51.47747942130977</v>
       </c>
       <c r="R38" t="n">
-        <v>26.21954482195957</v>
+        <v>29.94406562441783</v>
       </c>
       <c r="S38" t="n">
-        <v>9.511517762209682</v>
+        <v>10.86264136137419</v>
       </c>
       <c r="T38" t="n">
-        <v>1.827171431884711</v>
+        <v>2.08672353524588</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03339205358098842</v>
+        <v>0.03813543867953632</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2233290470336981</v>
+        <v>0.2550532316874888</v>
       </c>
       <c r="H39" t="n">
-        <v>2.156888427930716</v>
+        <v>2.463277263929168</v>
       </c>
       <c r="I39" t="n">
-        <v>7.689179908835659</v>
+        <v>8.781438020819241</v>
       </c>
       <c r="J39" t="n">
-        <v>21.09969737786356</v>
+        <v>24.09693712184297</v>
       </c>
       <c r="K39" t="n">
-        <v>36.06274352912133</v>
+        <v>41.18550364490471</v>
       </c>
       <c r="L39" t="n">
-        <v>48.4908090938738</v>
+        <v>55.37899225740848</v>
       </c>
       <c r="M39" t="n">
-        <v>56.58648704884534</v>
+        <v>64.62467190607993</v>
       </c>
       <c r="N39" t="n">
-        <v>58.08416298268099</v>
+        <v>66.33509467472103</v>
       </c>
       <c r="O39" t="n">
-        <v>53.13566146682904</v>
+        <v>60.68365201469825</v>
       </c>
       <c r="P39" t="n">
-        <v>42.64605284979451</v>
+        <v>48.70398070706091</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.50775695117873</v>
+        <v>32.55732129400295</v>
       </c>
       <c r="R39" t="n">
-        <v>13.86599118337295</v>
+        <v>15.83567345512321</v>
       </c>
       <c r="S39" t="n">
-        <v>4.148239097314521</v>
+        <v>4.737501913142606</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9001727816840723</v>
+        <v>1.02804350842457</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0146927004627433</v>
+        <v>0.0167798178741769</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1872315709241386</v>
+        <v>0.2138280616534454</v>
       </c>
       <c r="H40" t="n">
-        <v>1.664658876034615</v>
+        <v>1.901125857246089</v>
       </c>
       <c r="I40" t="n">
-        <v>5.630563969245915</v>
+        <v>6.430392981359978</v>
       </c>
       <c r="J40" t="n">
-        <v>13.2372720643366</v>
+        <v>15.11764395889859</v>
       </c>
       <c r="K40" t="n">
-        <v>21.75290433100446</v>
+        <v>24.8429329811912</v>
       </c>
       <c r="L40" t="n">
-        <v>27.83622828084875</v>
+        <v>31.79040109345861</v>
       </c>
       <c r="M40" t="n">
-        <v>29.34939979495383</v>
+        <v>33.51852060991235</v>
       </c>
       <c r="N40" t="n">
-        <v>28.65153666696389</v>
+        <v>32.7215251073859</v>
       </c>
       <c r="O40" t="n">
-        <v>26.46433149753189</v>
+        <v>30.22362456897973</v>
       </c>
       <c r="P40" t="n">
-        <v>22.64480745067944</v>
+        <v>25.86153211124942</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.67809090711128</v>
+        <v>17.90518432627169</v>
       </c>
       <c r="R40" t="n">
-        <v>8.418612270825356</v>
+        <v>9.614487208526732</v>
       </c>
       <c r="S40" t="n">
-        <v>3.262935649650669</v>
+        <v>3.726439947178679</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7999894394031374</v>
+        <v>0.9136289907010846</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01021263114131666</v>
+        <v>0.01166334881746067</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4174006697623553</v>
+        <v>0.4766929834942041</v>
       </c>
       <c r="H41" t="n">
-        <v>4.274704609203722</v>
+        <v>4.881932017210019</v>
       </c>
       <c r="I41" t="n">
-        <v>16.09183932101322</v>
+        <v>18.37770624616032</v>
       </c>
       <c r="J41" t="n">
-        <v>35.42636009524274</v>
+        <v>40.45872110784124</v>
       </c>
       <c r="K41" t="n">
-        <v>53.09493044628324</v>
+        <v>60.63713509915092</v>
       </c>
       <c r="L41" t="n">
-        <v>65.86895619352295</v>
+        <v>75.22572799276168</v>
       </c>
       <c r="M41" t="n">
-        <v>73.29190535440922</v>
+        <v>83.70311683797674</v>
       </c>
       <c r="N41" t="n">
-        <v>74.47784500737153</v>
+        <v>85.05752077732964</v>
       </c>
       <c r="O41" t="n">
-        <v>70.3273170974221</v>
+        <v>80.31740492270914</v>
       </c>
       <c r="P41" t="n">
-        <v>60.02273806266394</v>
+        <v>68.54904689269597</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.07457657679958</v>
+        <v>51.47747942130977</v>
       </c>
       <c r="R41" t="n">
-        <v>26.21954482195957</v>
+        <v>29.94406562441783</v>
       </c>
       <c r="S41" t="n">
-        <v>9.511517762209682</v>
+        <v>10.86264136137419</v>
       </c>
       <c r="T41" t="n">
-        <v>1.827171431884711</v>
+        <v>2.08672353524588</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03339205358098842</v>
+        <v>0.03813543867953632</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2233290470336981</v>
+        <v>0.2550532316874888</v>
       </c>
       <c r="H42" t="n">
-        <v>2.156888427930716</v>
+        <v>2.463277263929168</v>
       </c>
       <c r="I42" t="n">
-        <v>7.689179908835659</v>
+        <v>8.781438020819241</v>
       </c>
       <c r="J42" t="n">
-        <v>21.09969737786356</v>
+        <v>24.09693712184297</v>
       </c>
       <c r="K42" t="n">
-        <v>36.06274352912133</v>
+        <v>41.18550364490471</v>
       </c>
       <c r="L42" t="n">
-        <v>48.4908090938738</v>
+        <v>55.37899225740848</v>
       </c>
       <c r="M42" t="n">
-        <v>56.58648704884534</v>
+        <v>64.62467190607993</v>
       </c>
       <c r="N42" t="n">
-        <v>58.08416298268099</v>
+        <v>66.33509467472103</v>
       </c>
       <c r="O42" t="n">
-        <v>53.13566146682904</v>
+        <v>60.68365201469825</v>
       </c>
       <c r="P42" t="n">
-        <v>42.64605284979451</v>
+        <v>48.70398070706091</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.50775695117873</v>
+        <v>32.55732129400295</v>
       </c>
       <c r="R42" t="n">
-        <v>13.86599118337295</v>
+        <v>15.83567345512321</v>
       </c>
       <c r="S42" t="n">
-        <v>4.148239097314521</v>
+        <v>4.737501913142606</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9001727816840723</v>
+        <v>1.02804350842457</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0146927004627433</v>
+        <v>0.0167798178741769</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1872315709241386</v>
+        <v>0.2138280616534454</v>
       </c>
       <c r="H43" t="n">
-        <v>1.664658876034615</v>
+        <v>1.901125857246089</v>
       </c>
       <c r="I43" t="n">
-        <v>5.630563969245915</v>
+        <v>6.430392981359978</v>
       </c>
       <c r="J43" t="n">
-        <v>13.2372720643366</v>
+        <v>15.11764395889859</v>
       </c>
       <c r="K43" t="n">
-        <v>21.75290433100446</v>
+        <v>24.8429329811912</v>
       </c>
       <c r="L43" t="n">
-        <v>27.83622828084875</v>
+        <v>31.79040109345861</v>
       </c>
       <c r="M43" t="n">
-        <v>29.34939979495383</v>
+        <v>33.51852060991235</v>
       </c>
       <c r="N43" t="n">
-        <v>28.65153666696389</v>
+        <v>32.7215251073859</v>
       </c>
       <c r="O43" t="n">
-        <v>26.46433149753189</v>
+        <v>30.22362456897973</v>
       </c>
       <c r="P43" t="n">
-        <v>22.64480745067944</v>
+        <v>25.86153211124942</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.67809090711128</v>
+        <v>17.90518432627169</v>
       </c>
       <c r="R43" t="n">
-        <v>8.418612270825356</v>
+        <v>9.614487208526732</v>
       </c>
       <c r="S43" t="n">
-        <v>3.262935649650669</v>
+        <v>3.726439947178679</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7999894394031374</v>
+        <v>0.9136289907010846</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01021263114131666</v>
+        <v>0.01166334881746067</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4174006697623553</v>
+        <v>0.4766929834942041</v>
       </c>
       <c r="H44" t="n">
-        <v>4.274704609203722</v>
+        <v>4.881932017210019</v>
       </c>
       <c r="I44" t="n">
-        <v>16.09183932101322</v>
+        <v>18.37770624616032</v>
       </c>
       <c r="J44" t="n">
-        <v>35.42636009524274</v>
+        <v>40.45872110784124</v>
       </c>
       <c r="K44" t="n">
-        <v>53.09493044628324</v>
+        <v>60.63713509915092</v>
       </c>
       <c r="L44" t="n">
-        <v>65.86895619352295</v>
+        <v>75.22572799276168</v>
       </c>
       <c r="M44" t="n">
-        <v>73.29190535440922</v>
+        <v>83.70311683797674</v>
       </c>
       <c r="N44" t="n">
-        <v>74.47784500737153</v>
+        <v>85.05752077732964</v>
       </c>
       <c r="O44" t="n">
-        <v>70.3273170974221</v>
+        <v>80.31740492270914</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02273806266394</v>
+        <v>68.54904689269597</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.07457657679958</v>
+        <v>51.47747942130977</v>
       </c>
       <c r="R44" t="n">
-        <v>26.21954482195957</v>
+        <v>29.94406562441783</v>
       </c>
       <c r="S44" t="n">
-        <v>9.511517762209682</v>
+        <v>10.86264136137419</v>
       </c>
       <c r="T44" t="n">
-        <v>1.827171431884711</v>
+        <v>2.08672353524588</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03339205358098842</v>
+        <v>0.03813543867953632</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2233290470336981</v>
+        <v>0.2550532316874888</v>
       </c>
       <c r="H45" t="n">
-        <v>2.156888427930716</v>
+        <v>2.463277263929168</v>
       </c>
       <c r="I45" t="n">
-        <v>7.689179908835659</v>
+        <v>8.781438020819241</v>
       </c>
       <c r="J45" t="n">
-        <v>21.09969737786356</v>
+        <v>24.09693712184297</v>
       </c>
       <c r="K45" t="n">
-        <v>36.06274352912133</v>
+        <v>41.18550364490471</v>
       </c>
       <c r="L45" t="n">
-        <v>48.4908090938738</v>
+        <v>55.37899225740848</v>
       </c>
       <c r="M45" t="n">
-        <v>56.58648704884534</v>
+        <v>64.62467190607993</v>
       </c>
       <c r="N45" t="n">
-        <v>58.08416298268099</v>
+        <v>66.33509467472103</v>
       </c>
       <c r="O45" t="n">
-        <v>53.13566146682904</v>
+        <v>60.68365201469825</v>
       </c>
       <c r="P45" t="n">
-        <v>42.64605284979451</v>
+        <v>48.70398070706091</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.50775695117873</v>
+        <v>32.55732129400295</v>
       </c>
       <c r="R45" t="n">
-        <v>13.86599118337295</v>
+        <v>15.83567345512321</v>
       </c>
       <c r="S45" t="n">
-        <v>4.148239097314521</v>
+        <v>4.737501913142606</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9001727816840723</v>
+        <v>1.02804350842457</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0146927004627433</v>
+        <v>0.0167798178741769</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1872315709241386</v>
+        <v>0.2138280616534454</v>
       </c>
       <c r="H46" t="n">
-        <v>1.664658876034615</v>
+        <v>1.901125857246089</v>
       </c>
       <c r="I46" t="n">
-        <v>5.630563969245915</v>
+        <v>6.430392981359978</v>
       </c>
       <c r="J46" t="n">
-        <v>13.2372720643366</v>
+        <v>15.11764395889859</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75290433100446</v>
+        <v>24.8429329811912</v>
       </c>
       <c r="L46" t="n">
-        <v>27.83622828084875</v>
+        <v>31.79040109345861</v>
       </c>
       <c r="M46" t="n">
-        <v>29.34939979495383</v>
+        <v>33.51852060991235</v>
       </c>
       <c r="N46" t="n">
-        <v>28.65153666696389</v>
+        <v>32.7215251073859</v>
       </c>
       <c r="O46" t="n">
-        <v>26.46433149753189</v>
+        <v>30.22362456897973</v>
       </c>
       <c r="P46" t="n">
-        <v>22.64480745067944</v>
+        <v>25.86153211124942</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.67809090711128</v>
+        <v>17.90518432627169</v>
       </c>
       <c r="R46" t="n">
-        <v>8.418612270825356</v>
+        <v>9.614487208526732</v>
       </c>
       <c r="S46" t="n">
-        <v>3.262935649650669</v>
+        <v>3.726439947178679</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7999894394031374</v>
+        <v>0.9136289907010846</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01021263114131666</v>
+        <v>0.01166334881746067</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
